--- a/笔记/知识点.xlsx
+++ b/笔记/知识点.xlsx
@@ -13,8 +13,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>chloroplast</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>chloroplast:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+配置客户机IP地址</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="240">
   <si>
     <t>请求网站 https://www.test.com/ (120.55.68.184:443) 并返回静态页面 HelloWorld 过程</t>
   </si>
@@ -46,7 +78,66 @@
     <t>网络</t>
   </si>
   <si>
-    <t>应用层</t>
+    <t>应用层（应用层、表示层、会话层）</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>DHCP（Dynamic Host Configuration Protocol，动态主机配置协议），前身是BOOTP协议，是一个局域网的网络协议，使用UDP协议工作，统一使用两个IANA分配的端口：67（服务器端），68（客户端）。</t>
+  </si>
+  <si>
+    <t>客户端登录流程</t>
+  </si>
+  <si>
+    <t>1. 客户机初始化 &amp; 寻找DHCP服务器（DHCP Discover）
+以广播方式通过UDP 67端口发送DHCP Discover发现信息来寻找DHCP服务器，因为客户机还不知道自己属于哪一个网络，所以封包的源地址为0.0.0.0目的地址为255.255.255.255，向网络发送特定的广播信息。网络上每一台安装了TCP/IP协议的主机都会接收这个广播信息，但只有DHCP服务器才会做出响应</t>
+  </si>
+  <si>
+    <t>DHCP discover的等待时间预设为1秒，也就是当客户机将第一个DHCP discover封包送出去之后，在1秒之内没有得到回应的话，就会进行第二次DHCP discover广播。若一直没有得到回应，客户机会将这一广播包重新发送四次（以2，4，8，16秒为间隔，加上1-1000毫秒之间随机长度的时间）。如果都没有得到DHCP Server的回应，客户机会从169.254.0.0/16这个自动保留的私有IP地址中选用一个IP地址。并且每隔5分钟重新广播一次，如果收到某个服务器的响应，则继续IP租用过程。</t>
+  </si>
+  <si>
+    <t>2. 分配IP地址 &amp; 提供IP地址租用（DHCP Offer）
+DHCP服务器收到客户端发出的DHCP discover广播后，通过解析报文，查询dhcpd.conf配置文件。它会从那些还没有租出去的地址中，选择最前面的空置IP，连同其它TCP/IP设定，通过UDP 68端口响应给客户端一个DHCP offer数据包（包中包含IP地址、子网掩码、地址租期等信息）。告诉DHCP客户端，该DHCP服务器拥有资源，可以提供DHCP服务。</t>
+  </si>
+  <si>
+    <t>1. 此时还是使用广播进行通讯，源IP地址为DHCP服务器的IP地址，目标地址为255.255.255.255。同时，DHCP服务器为此客户端保留它提供的IP地址，从而不会为其他DHCP客户分配此IP地址。
+2. 由于客户端在开始的时候还没有IP地址，所以在其DHCP discover封包内会带有其MAC地址信息，并且有一个XID编号来辨别该封包，DHCP服务器响应的DHCP offer封包则会根据这些资料传递给要求租约的客户。</t>
+  </si>
+  <si>
+    <t>3. 接受IP地址 &amp; 接受IP租约（DHCP Request）
+DHCP客户端接受到DHCP offer提供信息之后，如果客户机收到网络上多台DHCP服务器的响应，一般是最先到达的那个，然后以广播的方式回答一个DHCP request数据包（包中包含客户端的MAC地址、接受的租约中的IP地址、提供此租约的DHCP服务器地址等）。告诉所有DHCP服务器它将接受哪一台服务器提供的IP地址，所有其他的DHCP服务器撤销它们的提供以便将IP地址提供给下一次IP租用请求。</t>
+  </si>
+  <si>
+    <t>1. 此时，由于还没有得到DHCP服务器的最后确认，客户端仍然使用0.0.0.0为源IP地址，255.255.255.255为目标地址进行广播。
+2. 并不是所有DHCP客户端都会无条件接受DHCP服务器的offer，特别是如果这些主机上安装有其它TCP/IP相关的客户机软件。客户端也可以用DHCP request向服务器提出DHCP选择，这些选择会以不同的号码填写在DHCP Option Field里面。客户机可以保留自己的一些TCP/IP设定。</t>
+  </si>
+  <si>
+    <t>4. IP地址分配确认 &amp; 租约确认（DHCP Ack）
+当DHCP服务器接收到客户机的DHCP request之后，会广播返回给客户机一个DHCP ack消息包，表明已经接受客户机的选择，告诉DHCP客户端可以使用它提供的IP地址。并将这一IP地址的合法租用以及其他的配置信息都放入该广播包发给客户机。</t>
+  </si>
+  <si>
+    <t>1. 客户端在接收到DHCP ack广播后，会向网络发送三个针对此IP地址的ARP解析请求以执行冲突检测，查询网络上有没有其它机器使用该IP地址；如果发现该IP地址已经被使用，客户机会发出一个DHCP decline数据包给DHCP服务器，拒绝此IP地址租约，并重新发送DHCP discover信息。此时，在DHCP服务器管理控制台中，会显示此IP地址为BAD_ADDRESS。
+2. 如果网络上没有其它主机使用此IP地址，则客户机的TCP/IP使用租约中提供的IP地址完成初始化，从而可以和其他网络中的主机进行通讯。</t>
+  </si>
+  <si>
+    <t>客户端重新登录</t>
+  </si>
+  <si>
+    <t>以后DHCP客户端每次重新登录网络时，就不需要再发送DHCP discover发现信息了，而是直接发送包含前一次所分配的IP地址的DHCP request请求信息。当DHCP服务器收到这一信息后，它会尝试让DHCP客户机继续使用原来的IP地址，并回答一个DHCP ack确认信息。如果此IP地址已无法再分配给原来的DHCP客户端使用时，则DHCP服务器给DHCP客户端回答一个DHCP nack否认信息。当原来的DHCP客户机收到此DHCP nack否认信息后，它就必须重新发送DHCP discover发现信息来请求新的IP地址。</t>
+  </si>
+  <si>
+    <t>更新租约</t>
+  </si>
+  <si>
+    <t>DHCP服务器向DHCP客户机出租的IP地址一般都有一个租借期限，期满后DHCP服务器便会收回出租的IP地址。如果DHCP客户机要延长其IP租约，则必须更新其IP租约。</t>
+  </si>
+  <si>
+    <t>1. 客户端会在租期过去50%的时候，直接向为其提供IP地址的DHCP服务器发送DHCP request消息包。如果客户端接收到该服务器回应的DHCP ack消息包，客户端就根据包中所提供的新的租期以及其它已经更新的TCP/IP参数，更新自己的配置，IP租用更新完成。如果没有收到该服务器的回复，则客户端继续使用现有的IP地址，因为当前租期还有50%。
+2. 如果在租期过去50%的时候没有更新，则客户端将在租期过去87.5%的时候再次向为其提供IP地址的DHCP联系。如果还不成功，到租约的100%时候，客户端必须放弃这个IP地址，重新申请。如果此时无DHCP可用，客户端会使用169.254.0.0/16中随机的一个地址，并且每隔5分钟再进行尝试。</t>
   </si>
   <si>
     <t xml:space="preserve">域名解析DNS </t>
@@ -152,6 +243,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1. POST /user HTTP/1.1 </t>
     </r>
     <r>
@@ -239,6 +337,28 @@
     <t>请求数据: GET没有请求数据，POST有。与请求数据相关的最常使用的请求头是 Content-Type 和 Content-Length 。</t>
   </si>
   <si>
+    <t>COOKIE</t>
+  </si>
+  <si>
+    <t>HTTP Cookie（也叫Web Cookie或浏览器Cookie）是服务器发送到用户浏览器并保存在本地的一小块数据，它会在浏览器下次向同一服务器再发起请求时被携带并发送到服务器上。</t>
+  </si>
+  <si>
+    <t>Cookie使基于无状态的HTTP协议记录稳定的状态信息成为了可能。</t>
+  </si>
+  <si>
+    <t>浏览器检查所有存储的cookie，如果某个cookie所声明的作用范围大于等于将要请求的资源所在的位置，则把该cookie附在请求资源的HTTP请求头上发送给服务器。</t>
+  </si>
+  <si>
+    <t>Cookie 的作用域</t>
+  </si>
+  <si>
+    <t>服务器可以在响应头里面添加一个Set-Cookie选项。浏览器收到响应后通常会保存下Cookie，之后对该服务器每一次请求中都通过Cookie请求头部将Cookie信息发送给服务器。另外，Cookie的过期时间、域、路径、有效期、适用站点都可以根据需要来指定。</t>
+  </si>
+  <si>
+    <t>创建Cookie
+Set-Cookie: &lt;cookie名&gt;=&lt;cookie值&gt;</t>
+  </si>
+  <si>
     <t>Keep-Alive</t>
   </si>
   <si>
@@ -346,27 +466,333 @@
     <t>TCP</t>
   </si>
   <si>
+    <t>TCP是一个面向连接的、可靠的、基于字节流的传输层协议。</t>
+  </si>
+  <si>
     <t>三次握手</t>
   </si>
   <si>
+    <t>1. 双方都处于CLOSED状态。然后服务端开始监听某个端口，进入了LISTEN状态。</t>
+  </si>
+  <si>
+    <t>为什么不是两次：因为无法确认客户端的接收能力，比如因为网络原因第一个包延迟了，TCP重传了，最终服务器接到两个包，建立了2次链接。</t>
+  </si>
+  <si>
+    <t>2. 客户端主动发起连接，发送 SYN , 自己变成了SYN-SENT状态。</t>
+  </si>
+  <si>
+    <t>为什么不是三次以上：因为最少三次可以解决问题</t>
+  </si>
+  <si>
+    <t>3. 服务端接收到，返回SYN和ACK(对应客户端发来的SYN)，自己变成了SYN-REVD。</t>
+  </si>
+  <si>
+    <t>4. 之后客户端再发送ACK给服务端，自己变成了ESTABLISHED状态；服务端收到ACK之后，也变成了ESTABLISHED状态。</t>
+  </si>
+  <si>
+    <t>消耗序列号：凡是需要对端确认的，一定消耗TCP报文的序列号</t>
+  </si>
+  <si>
     <t>四次挥手</t>
   </si>
   <si>
+    <t>1. 刚开始双方处于ESTABLISHED状态。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等待2MSL的意义：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果不等待，客户端直接跑路，当服务端还有很多数据包要给客户端发，且还在路上的时候，若客户端的端口此时刚好被新的应用占用，那么就接收到了无用数据包，造成数据包混乱。所以，最保险的做法是等服务器发来的数据包都死翘翘再启动新的应用。
+1. 1 个 MSL 确保四次挥手中主动关闭方最后的 ACK 报文最终能达到对端
+2. 1 个 MSL 确保对端没有收到 ACK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的 FIN 报文可以到达</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 客户端要断开了，向服务器发送 FIN 报文。发送后客户端变成了FIN-WAIT-1状态。注意, 这时候客户端同时也变成了half-close(半关闭)状态，即无法向服务端发送报文，只能接收。</t>
+  </si>
+  <si>
+    <t>3. 服务端接收后向客户端确认，变成了CLOSED-WAIT状态。</t>
+  </si>
+  <si>
+    <t>4. 客户端接收到了服务端的确认，变成了FIN-WAIT2状态。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">为什么是四次挥手: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>因为服务端在接收到FIN, 往往不会立即返回FIN, 必须等到服务端所有的报文都发送完毕了，才能发FIN。因此先发一个ACK表示已经收到客户端的FIN，延迟一段时间才发FIN。这就造成了四次挥手。如果服务端将ACK和FIN的发送合并为一次挥手，这个时候长时间的延迟可能会导致客户端误以为FIN没有到达客户端，从而让客户端不断的重发FIN。</t>
+    </r>
+  </si>
+  <si>
+    <t>5. 服务端向客户端发送FIN，自己进入LAST-ACK状态。</t>
+  </si>
+  <si>
+    <t>6. 客户端收到服务端发来的FIN后，自己变成了TIME-WAIT状态，然后发送 ACK 给服务端。</t>
+  </si>
+  <si>
+    <t>7. 客户端需要等待足够长的时间，具体来说，是 2 个 MSL(Maximum Segment Lifetime，报文最大生存时间), 在这段时间内如果客户端没有收到服务端的重发请求，那么表示 ACK 成功到达，挥手结束，否则客户端重发 ACK。</t>
+  </si>
+  <si>
     <t>UDP</t>
   </si>
   <si>
+    <t>UDP是一个基于数据报的，面向无连接的传输层协议。</t>
+  </si>
+  <si>
     <t>DNS 查询域名使用到 UDP 协议</t>
   </si>
   <si>
     <t>网络层</t>
   </si>
   <si>
-    <t>数据接口层</t>
+    <t>路由器(router)</t>
+  </si>
+  <si>
+    <t>Router由两部分组成：路由选择部分和分组转发部分</t>
+  </si>
+  <si>
+    <t>网络设备</t>
+  </si>
+  <si>
+    <t>路由选择部分</t>
+  </si>
+  <si>
+    <t>路由选择部分的核心构件是路由选择处理机，它的任务是根据所使用的路由选择协议，周期性的与其他路由器进行路由信息的交互，来更新路由表。即：转发表通过路由表生成。</t>
+  </si>
+  <si>
+    <t>路由器可以隔离广播域。</t>
+  </si>
+  <si>
+    <t>分组转发部分</t>
+  </si>
+  <si>
+    <t>分组转发部分由三部分构成：交换结构、一组输入端口、一组输出端口</t>
+  </si>
+  <si>
+    <t>工作原理</t>
+  </si>
+  <si>
+    <t>1. 信号从某个输入端口进入路由器，在输入端口的物理层将信号变为比特流，送交数据链路层处理。</t>
+  </si>
+  <si>
+    <t>2. 数据链路层从比特流中识别出帧，去掉帧头和帧尾后，送交网络层处理。</t>
+  </si>
+  <si>
+    <t>3. 如果送交网络层的是普通待转发的数据分组：则根据分组首部中的目的地址进行查找转发。若找不到匹配的转发条目，则丢弃该分组。输出端口的网络层会更新首部中某些字段的值，然后送交数据链路层进行封装，然后是物理层。</t>
+  </si>
+  <si>
+    <t>4. 如果送交网络层的是路由器之间交换路由信息的路由报文：则把这种报文送交路由选择处理机，路由选择处理机根据分组的内容更新自己的路由表</t>
+  </si>
+  <si>
+    <t>数据接口层（数据链路层、物理层）</t>
+  </si>
+  <si>
+    <t>交换机(switch)</t>
+  </si>
+  <si>
+    <t>以看成多个bridge的集成设备，多接口网桥。兼顾物理层和数据链路层。以太网桥交换机的每个接口都直接与主机相连，并且一般都工作在全双工方式。</t>
+  </si>
+  <si>
+    <t>独占传输媒体的带宽。</t>
+  </si>
+  <si>
+    <t>自学习和转发帧</t>
+  </si>
+  <si>
+    <t>1. 收到帧后进行登记。登记的内容为帧的源MAC地址及进入交换机的接口号</t>
+  </si>
+  <si>
+    <t>与网桥类似，更复杂</t>
+  </si>
+  <si>
+    <t>2. 根据帧的目的MAC地址和交换机的帧交换表对帧进行转发，以下三种情况</t>
+  </si>
+  <si>
+    <t>2.1 明确转发：交换机知道应当从哪个（或哪些）接口转发该帧（单播，多播，广播）</t>
+  </si>
+  <si>
+    <t>2.2 盲目转发：交换机不知道应当从哪个端口转发帧，只能将其通过除进入交换机的接口外的其他接口转发（也称为泛洪）</t>
+  </si>
+  <si>
+    <t>2.3 明确丢弃：交换机知道不应该转发该帧，将其丢弃。</t>
+  </si>
+  <si>
+    <t>集线器(hub)</t>
+  </si>
+  <si>
+    <t>一个口收到的信号，原封不动的发送给所有其他的口，由其他的口上的设备自己决定是否接收信号。有点类似广播，但是比广播更纯粹。由于hub只是简单的转发，所以hub工作在物理层。</t>
+  </si>
+  <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>使原来属于不同碰撞与的局域网上的计算机能够进行跨碰撞域的通信。</t>
+  </si>
+  <si>
+    <t>扩大了局域网覆盖的地理范围。</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>碰撞域增大了，但总的吞吐量并未提高了。</t>
+  </si>
+  <si>
+    <t>如果不同的碰撞域使用不同的数据率，那么就不能用集线器将它们互联起来。</t>
+  </si>
+  <si>
+    <t>网桥(bridge)</t>
+  </si>
+  <si>
+    <t>工作在数据链路层（L2）。网桥会过滤mac，只有目的mac地址匹配的数据才会发送到出口。一个bridge指的是一个输入到一个输出的桥接。</t>
+  </si>
+  <si>
+    <t>网桥可以隔离碰撞域，扩大广播域。如果不同的碰撞域使用不同的数据率，能使用网桥互连，网桥是交换机的简化版本。</t>
+  </si>
+  <si>
+    <t>1. 过滤通信量
+2. 扩大了物理访问</t>
+  </si>
+  <si>
+    <t>3. 可以互连不同物理层，不同MAC子层和不同速率的局域网</t>
+  </si>
+  <si>
+    <t>1. 存储转发增加了时延
+2. 在 MAC 子层并没有流量控制功能</t>
+  </si>
+  <si>
+    <t>3. 广播风暴</t>
+  </si>
+  <si>
+    <t>透明网桥</t>
+  </si>
+  <si>
+    <t>”透明“是指局域网上的站点并不知道所发送的帧将经过哪几个网桥，因为网桥对各站来说是看不见的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARP </t>
+  </si>
+  <si>
+    <t>Address Resolution Protocol，是根据IP地址获取物理地址的一个TCP/IP协议。</t>
+  </si>
+  <si>
+    <t>主机发送信息时将包含目标IP地址的ARP请求广播到局域网络上的所有主机，并接收返回消息，以此确定目标的物理地址；收到返回消息后将该IP地址和物理地址存入本机ARP缓存中并保留一定时间，下次请求时直接查询ARP缓存以节约资源。</t>
+  </si>
+  <si>
+    <t>ARP是网络层与数据链路层的重要枢纽</t>
+  </si>
+  <si>
+    <t>工作过程</t>
+  </si>
+  <si>
+    <t>1. 主机A首先查看自己的ARP缓存表，确定其中是否包含有主机B对应的ARP表项。如果找到了对应的MAC地址，则主机A直接利用ARP表中的MAC地址，对IP数据包进行帧封装，并将数据包发送给主机B。</t>
+  </si>
+  <si>
+    <t>2. 如果主机A在ARP表中找不到对应的MAC地址，则将缓存该数据报文，然后以广播方式发送一个ARP请求报文。ARP请求报文中的发送端IP地址和发送端MAC地址为主机A的IP地址和MAC地址，目标IP地址和目标MAC地址为主机B的IP地址和全0的MAC地址。由于ARP请求报文以广播方式发送，该网段上的所有主机都可以接收到该请求，但只有被请求的主机（即主机B）会对该请求进行处理。</t>
+  </si>
+  <si>
+    <r>
+      <t>3. 主机B比较自己的IP地址和ARP请求报文中的目标IP地址，当两者相同时进行如下处理：将ARP请求报文中的发送端（即主机A）的IP地址和MAC地址存入自己的ARP表中。之后以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方式发送ARP响应报文给主机A，其中包含了自己的MAC地址。</t>
+    </r>
+  </si>
+  <si>
+    <t>4. 主机A收到ARP响应报文后，将主机B的MAC地址加入到自己的ARP表中以用于后续报文的转发，同时将IP数据包进行封装后发送出去。</t>
+  </si>
+  <si>
+    <t>Arp代理</t>
+  </si>
+  <si>
+    <t>如果ARP请求是从一个网络的主机发往同一网段却不在同一物理网络上的另一台主机，那么连接它们的具有代理ARP功能的设备就可以回答该请求，这个过程称作代理ARP（ProxyARP）。</t>
+  </si>
+  <si>
+    <t>同一个网段，但是不在同一个物理网络</t>
+  </si>
+  <si>
+    <t>1. 当Host A需要与Host B通信时，由于目的IP地址与本机的IP地址为同一网段，因此Host A会广播发送ARP请求报文，请求Host B的MAC地址。</t>
+  </si>
+  <si>
+    <t>2. 但是，此时的两台主机处于不同的广播域中，Host B无法收到Host A的ARP请求报文，当然也就无法应答。</t>
+  </si>
+  <si>
+    <t>3. 通过在Switch上启用代理ARP功能，可以解决此问题。启用代理ARP后，Switch可以应答Host A的ARP请求。同时，Switch相当于Host B的代理，把从其他主机发送过来的报文转发给它。</t>
   </si>
   <si>
     <t>接收</t>
   </si>
   <si>
+    <t>应用层</t>
+  </si>
+  <si>
     <t>响应报文</t>
   </si>
   <si>
@@ -380,6 +806,55 @@
   </si>
   <si>
     <t>响应实体：类似请求实体</t>
+  </si>
+  <si>
+    <t>压缩</t>
+  </si>
+  <si>
+    <t>HTTP压缩在HTTP协议中，其实是内容编码的一种。在HTTP协议中，可以对内容（也就是body部分）进行编码。</t>
+  </si>
+  <si>
+    <t>HTTP压缩，其实就是HTTP内容编码的一种。</t>
+  </si>
+  <si>
+    <t>1. 浏览器发送一个请求头，告诉服务器接受压缩版本的文件（GZIP 和 Deflate 是两种压缩算法）Accept-Encoding: GZIP, Deflate</t>
+  </si>
+  <si>
+    <t>2. 如果文件压缩了，服务器返回一个头信息：Content-Encoding: GZIP</t>
+  </si>
+  <si>
+    <t>3. 如果服务器没有返回 Content-Encoding 的头信息，意味着这文件是没压缩的（浏览器可以直接解析的）。</t>
+  </si>
+  <si>
+    <t>缓存 Cache-Control</t>
+  </si>
+  <si>
+    <t>1. 可缓存性: public, private, no-cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 到期: max-age=xx(缓存多少秒后过期), s-maxage=(类似max-age, 仅在代理服务器生效), </t>
+  </si>
+  <si>
+    <t>3. 重新验证:must-revalidate, proxy-revalidate</t>
+  </si>
+  <si>
+    <t>4. 其他: no-store，本地和代理服务器都不可以存储缓存，每次都要重新请求，拿到内容。
+no-transform，主要是用在 proxy 服务器，不允许进行格式转换。</t>
+  </si>
+  <si>
+    <t>缓存验证</t>
+  </si>
+  <si>
+    <t>Last-Modified: 上次修改时间。服务器对比上次修改时间以验证资源是否需要更新。</t>
+  </si>
+  <si>
+    <t>配合If-Modified-Since或If-Unmodified-Since使用，通常浏览器使用前者。</t>
+  </si>
+  <si>
+    <t>Etag: 数据签名，资源内容会对应有一个唯一的签名，如果资源数据更改，签名也会变。对比资源的签名判断是否使用缓存。</t>
+  </si>
+  <si>
+    <t>配合If-Match或者If-None-Match使用，其值就是服务端返回的 Etag 值</t>
   </si>
   <si>
     <t>防火墙</t>
@@ -413,6 +888,9 @@
     <t>基于规则</t>
   </si>
   <si>
+    <t>数据接口层</t>
+  </si>
+  <si>
     <t>其他</t>
   </si>
   <si>
@@ -437,13 +915,37 @@
     <t>操作系统</t>
   </si>
   <si>
-    <t>进程管理</t>
-  </si>
-  <si>
     <t>进程</t>
   </si>
   <si>
-    <t>定义</t>
+    <t>进程概念</t>
+  </si>
+  <si>
+    <t>进程是正在执行的程序，是大多数系统中的工作单元。是活动的实体。</t>
+  </si>
+  <si>
+    <t>包括：程序代码（文本段），当前活动（程序计数器的值和处理器寄存器的内容）。进程堆栈（stack）（包括临时数据，如函数参数、返回地址和局部变量），数据段（data section）（包括全局变量）。进程还包括堆（heap），这是进程运行时动态分配的内存。</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>进程在执行时会改变状态。进程状态部分取决于进程的当前活动。</t>
+  </si>
+  <si>
+    <t>1. 新的（new）： 进程正在创建。</t>
+  </si>
+  <si>
+    <t>2. 运行（running）: 指令正在运行。</t>
+  </si>
+  <si>
+    <t>3. 等待（waiting）: 进程等待某个事件发生（如I/O完成或者某个信号）。</t>
+  </si>
+  <si>
+    <t>4. 就绪（ready）: 进程等待分配处理器</t>
+  </si>
+  <si>
+    <t>5. 终止（terminated） : 进程已经完成执行。</t>
   </si>
   <si>
     <t>线程</t>
@@ -452,10 +954,16 @@
     <t>进程调度</t>
   </si>
   <si>
+    <t>进程运行</t>
+  </si>
+  <si>
+    <t>进程间通信</t>
+  </si>
+  <si>
+    <t>多线程编程</t>
+  </si>
+  <si>
     <t>同步</t>
-  </si>
-  <si>
-    <t>死锁</t>
   </si>
   <si>
     <t>内存管理</t>
@@ -479,11 +987,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,10 +1014,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -521,22 +1060,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -552,7 +1076,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,9 +1089,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,21 +1113,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,17 +1129,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,23 +1143,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,11 +1163,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="35">
@@ -684,7 +1203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +1215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,13 +1227,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,13 +1269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +1299,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,31 +1347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,55 +1365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,12 +1383,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -930,11 +1449,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,17 +1508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,26 +1538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,152 +1577,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,41 +1735,116 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1291,16 +1911,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>278765</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>284480</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3812540</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>492125</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4002405</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>502920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1316,7 +1936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15505430" y="15270480"/>
+          <a:off x="25431750" y="25466675"/>
           <a:ext cx="3533775" cy="2239645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1332,16 +1952,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>184785</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>186055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3787775</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4273550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1357,7 +1977,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15411450" y="18188305"/>
+          <a:off x="25633680" y="28405455"/>
           <a:ext cx="3602990" cy="2106295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1373,16 +1993,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3678555</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>593725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3931920</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>720725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1398,7 +2018,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15521940" y="12711430"/>
+          <a:off x="25511760" y="23023830"/>
           <a:ext cx="3383280" cy="2106295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1406,6 +2026,384 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4262755</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>451485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24989155" y="35629850"/>
+          <a:ext cx="4236720" cy="2464435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4058285</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25055195" y="38254940"/>
+          <a:ext cx="3966210" cy="3378200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4685030</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>654050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25016460" y="1581785"/>
+          <a:ext cx="4631690" cy="3174365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>302260</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4573905</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>455295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25265380" y="67590035"/>
+          <a:ext cx="4271645" cy="1851660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>528955</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4212590</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25492075" y="63564770"/>
+          <a:ext cx="3683635" cy="1719580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>318135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4805045</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>674370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" r:link="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25196800" y="59512835"/>
+          <a:ext cx="4571365" cy="1080135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135890</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>412750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4855210</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25099010" y="43135550"/>
+          <a:ext cx="4719320" cy="2439670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1713865</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3187065</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26676985" y="74888725"/>
+          <a:ext cx="1473200" cy="1999615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4627245</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>410845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25820370" y="76979780"/>
+          <a:ext cx="3769995" cy="1790065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1673,12 +2671,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70:C71"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
@@ -1687,12 +2685,13 @@
     <col min="2" max="2" width="15.09375" style="1" customWidth="1"/>
     <col min="3" max="4" width="23.6875" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="92.0625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.6953125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="129.171875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="82.6796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.4140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1702,8 +2701,9 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1722,931 +2722,2092 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" ht="93" customHeight="1" spans="1:8">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G4" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" ht="110" customHeight="1" spans="1:9">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
+      <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" ht="91" customHeight="1" spans="1:8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11" t="s">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" ht="103" customHeight="1" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" ht="103" customHeight="1" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7" t="s">
+      <c r="F8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" ht="128" customHeight="1" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7" t="s">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="7" t="s">
-        <v>29</v>
+      <c r="F16" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="F17" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7" t="s">
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="14" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:13">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="7" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="M26"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="7" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="7" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="16"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" ht="60" customHeight="1" spans="1:7">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="7" t="s">
+      <c r="F25" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:13">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="M31" s="15"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7" t="s">
+      <c r="F28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="7" t="s">
+      <c r="G28" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7" t="s">
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:10">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="I36"/>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" ht="90" customHeight="1" spans="1:7">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="7" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:8">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="7" t="s">
+      <c r="F32" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7" t="s">
+      <c r="G32" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:8">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G33" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" ht="54" customHeight="1" spans="1:8">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" ht="53" customHeight="1" spans="1:7">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7" t="s">
+      <c r="G34" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" ht="80" customHeight="1" spans="1:7">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7" t="s">
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:8">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
+      <c r="F35" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" ht="159" customHeight="1" spans="1:7">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7" t="s">
+      <c r="G35" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:13">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G36" s="15"/>
+      <c r="H36" s="21"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:8">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:7">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="4" t="s">
+      <c r="G37" s="15"/>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="G38" s="15"/>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" ht="60" customHeight="1" spans="1:8">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7" t="s">
+      <c r="G39" s="15"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:8">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
+      <c r="F40" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7" t="s">
+      <c r="G40" s="15"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:13">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="14" t="s">
         <v>77</v>
       </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="22"/>
+      <c r="M41" s="25"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:8">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:8">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="15"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:10">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="21"/>
+      <c r="I46"/>
+      <c r="J46" s="25"/>
+    </row>
+    <row r="47" ht="90" customHeight="1" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="F47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:7">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:7">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:7">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6" t="s">
+      <c r="F48" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="G48" s="15"/>
+      <c r="H48" s="22"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:8">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G49" s="15"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="F50" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:7">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:7">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" ht="53" customHeight="1" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" ht="80" customHeight="1" spans="1:8">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:7">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" ht="58" customHeight="1" spans="1:7">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7" t="s">
+      <c r="F52" s="14"/>
+      <c r="G52" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" ht="159" customHeight="1" spans="1:8">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="F53" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="G53" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:8">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:8">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:8">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="22"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:8">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="F58" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="22"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
+      <c r="E60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:8">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G61" s="7"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="H61" s="22"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:8">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="F62" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="22"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="5"/>
-      <c r="B64" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H63" s="22"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="G64" s="7"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="5"/>
-      <c r="B65" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="5"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="5"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="5"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="5"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="5"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" s="7" t="s">
+      <c r="H64" s="22"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:8">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="22"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H69" s="30"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:8">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="31"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="31"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="31"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="31"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:8">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="31"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="32"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:8">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:8">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:8">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:8">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:8">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:8">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:8">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:8">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="14"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:8">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:8">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:8">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:8">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" s="14"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:8">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:8">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:8">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G91" s="14"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:8">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:8">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" s="14"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:8">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G94" s="34"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:8">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G95" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:8">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" s="34"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:8">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G97" s="34"/>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:8">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G98" s="34"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:8">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" s="34"/>
+      <c r="H99" s="16"/>
+    </row>
+    <row r="100" ht="57" customHeight="1" spans="1:10">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G100" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H100" s="16"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" ht="57" customHeight="1" spans="1:8">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G101" s="34"/>
+      <c r="H101" s="30"/>
+    </row>
+    <row r="102" ht="57" customHeight="1" spans="1:8">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G102" s="34"/>
+      <c r="H102" s="31"/>
+    </row>
+    <row r="103" ht="57" customHeight="1" spans="1:8">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G103" s="34"/>
+      <c r="H103" s="32"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:8">
+      <c r="A104" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G104" s="14"/>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="H105" s="16"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:8">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:8">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:8">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F108" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H108" s="38"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:8">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G109" s="34"/>
+      <c r="H109" s="38"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:8">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G110" s="34"/>
+      <c r="H110" s="38"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:8">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G111" s="34"/>
+      <c r="H111" s="38"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:8">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G112" s="20"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:8">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G113" s="20"/>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:8">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G115" s="20"/>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G116" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="H116" s="21"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:8">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G117" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H117" s="22"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:8">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:8">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:8">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:8">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" ht="58" customHeight="1" spans="1:8">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:8">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:8">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:8">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126" s="7"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127" s="7"/>
+      <c r="B127" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H127" s="16"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:8">
+      <c r="A128" s="7"/>
+      <c r="B128" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="16"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:14">
+      <c r="A129" s="7"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="16"/>
+      <c r="N129"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:8">
+      <c r="A130" s="7"/>
+      <c r="B130" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="30"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:8">
+      <c r="A131" s="7"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G131" s="14"/>
+      <c r="H131" s="31"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:8">
+      <c r="A132" s="7"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G132" s="14"/>
+      <c r="H132" s="31"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:8">
+      <c r="A133" s="7"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G133" s="14"/>
+      <c r="H133" s="31"/>
+    </row>
+    <row r="134" customHeight="1" spans="1:8">
+      <c r="A134" s="7"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="H134" s="31"/>
+    </row>
+    <row r="135" customHeight="1" spans="1:8">
+      <c r="A135" s="7"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="31"/>
+    </row>
+    <row r="136" customHeight="1" spans="1:8">
+      <c r="A136" s="7"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G136" s="14"/>
+      <c r="H136" s="31"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137" s="7"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G137" s="14"/>
+      <c r="H137" s="32"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138" s="7"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E138" s="40"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="32"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139" s="7"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E139" s="40"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="32"/>
+    </row>
+    <row r="140" customHeight="1" spans="1:8">
+      <c r="A140" s="7"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E140" s="40"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="32"/>
+    </row>
+    <row r="141" customHeight="1" spans="1:8">
+      <c r="A141" s="7"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:8">
+      <c r="A142" s="7"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="16"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:8">
+      <c r="A143" s="7"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="16"/>
+    </row>
+    <row r="144" customHeight="1" spans="1:8">
+      <c r="A144" s="7"/>
+      <c r="B144" s="27"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="16"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:8">
+      <c r="A145" s="7"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="16"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:8">
+      <c r="A146" s="7"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="16"/>
+    </row>
+    <row r="147" customHeight="1" spans="1:8">
+      <c r="A147" s="7"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:8">
+      <c r="A148" s="7"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="16"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:8">
+      <c r="A149" s="7"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="16"/>
+    </row>
+    <row r="150" customHeight="1" spans="1:8">
+      <c r="A150" s="9"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A48"/>
-    <mergeCell ref="A49:A73"/>
-    <mergeCell ref="B3:B61"/>
-    <mergeCell ref="C3:C29"/>
-    <mergeCell ref="C30:C46"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D3:D20"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="D30:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G10:G17"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G55:G56"/>
+  <mergeCells count="78">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:A103"/>
+    <mergeCell ref="A104:A150"/>
+    <mergeCell ref="B3:B103"/>
+    <mergeCell ref="B104:B126"/>
+    <mergeCell ref="B130:B149"/>
+    <mergeCell ref="C3:C39"/>
+    <mergeCell ref="C40:C67"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="C75:C103"/>
+    <mergeCell ref="C104:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C130:C141"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="D10:D27"/>
+    <mergeCell ref="D28:D39"/>
+    <mergeCell ref="D40:D53"/>
+    <mergeCell ref="D54:D66"/>
+    <mergeCell ref="D68:D74"/>
+    <mergeCell ref="D75:D81"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="D87:D93"/>
+    <mergeCell ref="D94:D103"/>
+    <mergeCell ref="D104:D117"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="E104:E107"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E132:E137"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G24"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H55:H59"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="H69:H75"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H130:H137"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/笔记/知识点.xlsx
+++ b/笔记/知识点.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="知识点梳理" sheetId="1" r:id="rId1"/>
+    <sheet name="定义" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="617">
   <si>
     <t>请求网站 https://www.test.com/ (120.55.68.184:443) 并返回静态页面 HelloWorld 过程</t>
   </si>
@@ -888,7 +889,455 @@
     <t>基于规则</t>
   </si>
   <si>
-    <t>数据接口层</t>
+    <t>数据接口层-链路层</t>
+  </si>
+  <si>
+    <t>数据接口层-物理层</t>
+  </si>
+  <si>
+    <t>物理层</t>
+  </si>
+  <si>
+    <t>在各种传输媒体上传输比特0和1，进而给其上面的数据链路层提供透明传输比特流的服务。物理层为数据链路层屏蔽掉了各种传输媒体和通信手段的差异，使数据链路层感觉不到这些差异，这样就可使数据链路层只考虑如何实现本层协议和服务</t>
+  </si>
+  <si>
+    <t>透明传输比特流：在数据链路层”看不见“物理层怎么传输比特流</t>
+  </si>
+  <si>
+    <t>数字信道</t>
+  </si>
+  <si>
+    <t>数字数据则采用数字信号(Digital Signal)，例如用一系列断续变化的电压脉冲(如我们可用恒定的正电压表示二进制数1，用恒定的负电压表示二进制数0)，或光脉冲来表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 当数字信号采用断续变化的电压或光脉冲来表示时，一般则需要用双绞线、电缆或光纤介质将通信双方连接起来，才能将信号从一个节点传到另一个节点</t>
+  </si>
+  <si>
+    <t>模拟信道</t>
+  </si>
+  <si>
+    <t>模拟数据一般采用模拟信号，如用一系列连续变化的电磁波(如无线电与电视广播中的电磁波)，或电压信号(如电话传输中的音频电压信号)来表示</t>
+  </si>
+  <si>
+    <t>当模拟信号采用连续变化的电磁波来表示时，电磁波本身既是信号载体，同时作为传输介质；而当模拟信号采用连续变化的信号电压来表示时，它一般通过传统的模拟信号传输线路(例如电话网、有线电视网)来传输</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>按相同接口标准生产的不同厂家的网络设备接口可以相互链接和通信。</t>
+  </si>
+  <si>
+    <t>机械特性</t>
+  </si>
+  <si>
+    <t>接线器的形状和尺寸、引脚数目和排列以及固定和锁定装置</t>
+  </si>
+  <si>
+    <t>电气特性</t>
+  </si>
+  <si>
+    <t>信号电压的范围、阻抗匹配情况以及传输速率和距离限制</t>
+  </si>
+  <si>
+    <t>功能特性</t>
+  </si>
+  <si>
+    <t>接口电缆的各条信号线的作用</t>
+  </si>
+  <si>
+    <t>过程特性</t>
+  </si>
+  <si>
+    <t>规定了信号线上进行比特流传输的一组操作过程，包括各信号间的时序关系</t>
+  </si>
+  <si>
+    <t>传输媒体</t>
+  </si>
+  <si>
+    <t>导向型传输媒体（固体媒体）</t>
+  </si>
+  <si>
+    <t>同轴电缆：内导体、绝缘层、外屏蔽层以及外部保护层组成。各层都是共圆心的。
+双绞线：两根相互绝缘的铜导线按一定密度相互绞合（twist）。
+光纤：广播在光线中不断发生全反射，光波就可以沿着光纤传输下去。</t>
+  </si>
+  <si>
+    <t>非导向性传输媒体（自有空间）</t>
+  </si>
+  <si>
+    <t>无线电波、微波、红外线、激光、可见光</t>
+  </si>
+  <si>
+    <t>传输方式</t>
+  </si>
+  <si>
+    <t>串行传输</t>
+  </si>
+  <si>
+    <t>发送端和接收端之间只有一条数据传输线路</t>
+  </si>
+  <si>
+    <t>远距离传输
+网络传输使用串行传输，网卡从传输线路接收数据时要进行串/并转换（外部到内部）</t>
+  </si>
+  <si>
+    <t>并行传输</t>
+  </si>
+  <si>
+    <t>发送端和接收端之间有多条数据传输线路</t>
+  </si>
+  <si>
+    <t>成本高，短距离传输
+网卡将数据发送到传输线路上时，网卡要实现并/串转化（内部到外部）</t>
+  </si>
+  <si>
+    <t>同步传输</t>
+  </si>
+  <si>
+    <r>
+      <t>以比特为传输单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，字节之间没有间隔，没有起始位和终止位。要求收发双方，对表示特特的信号的时间长度达成一致，即所谓的同步。</t>
+    </r>
+  </si>
+  <si>
+    <t>外同步：在收发双方之间增加一条时钟线，发送端在发送数据信号的同时，还要发送一路时钟信号。接收端在时钟信号的”指挥下“对数据信号进行采样</t>
+  </si>
+  <si>
+    <t>内同步：发送端将时钟信号编码到发送数据中一起发送，即自包含时钟编码，具有自同步能力。</t>
+  </si>
+  <si>
+    <t>异步传输</t>
+  </si>
+  <si>
+    <r>
+      <t>以字节为传输单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，自建之间的时间间隔不固定，接收端只在每个字节的起始处对字节内的比特实现同步。要给每个字节添加起始位和结束位。</t>
+    </r>
+  </si>
+  <si>
+    <t>异步是指字节之间的异步（字节之间的时间间隔并不固定），但字节内的每个比特仍然要同步。</t>
+  </si>
+  <si>
+    <t>单向通信</t>
+  </si>
+  <si>
+    <t>只能有一个方向通信，单工通信。</t>
+  </si>
+  <si>
+    <t>无线电广播</t>
+  </si>
+  <si>
+    <t>双向交替通信</t>
+  </si>
+  <si>
+    <t>双向交替通信是指通信双方都可以发送信息和接收信息。不能同时进行，半双工通信。</t>
+  </si>
+  <si>
+    <t>对讲机</t>
+  </si>
+  <si>
+    <t>双向同时通信</t>
+  </si>
+  <si>
+    <t>通信双方都可以同时发送信息和接收信息。全双工通信。</t>
+  </si>
+  <si>
+    <t>有线电话</t>
+  </si>
+  <si>
+    <t>编码与调制</t>
+  </si>
+  <si>
+    <r>
+      <t>数字下号需要编码或调制成适合在信道上传输的信号，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信号是数据的电磁表现。</t>
+    </r>
+  </si>
+  <si>
+    <t>基带信号</t>
+  </si>
+  <si>
+    <t>由信源发出的原始信号，基本频道信号。信道不能传输低频分量或直流分量（连续的0或连续的1）。需要对基带信号进行调制后才能在信道上传输。</t>
+  </si>
+  <si>
+    <t>计算机输出的（文字、图像、音频或视频）都属于基带信号</t>
+  </si>
+  <si>
+    <t>基带调制</t>
+  </si>
+  <si>
+    <t>对数字基带信号进行波形变换，使其能够与信道特性相适应，调制后的信号仍然是数字基带信号。（数字-&gt;数字)</t>
+  </si>
+  <si>
+    <r>
+      <t>把数字信号转换成另一种形式的数字信号，也称为”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“
+仅对基带信号的波形进行变换，使它能够与信道特性相适应，变换后的信号仍是基带信号</t>
+    </r>
+  </si>
+  <si>
+    <t>带通调制</t>
+  </si>
+  <si>
+    <t>将数字信号的频率范围编译到较高的频段，并转换为模拟信号，使其能够在模拟信道中传输。(数字-&gt;模拟)</t>
+  </si>
+  <si>
+    <r>
+      <t>使用载波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将基带信号的频率范围搬移到较高的频段，并转换为模拟信号。</t>
+    </r>
+  </si>
+  <si>
+    <t>码元</t>
+  </si>
+  <si>
+    <t>信号的编码单元称为码元</t>
+  </si>
+  <si>
+    <t>模拟信号：载波参数（振幅、频率、初相位）的变化就是一个码元
+数字信号：一个数字脉冲</t>
+  </si>
+  <si>
+    <t>在使用始建于的波形表示信号时，代表不同离散数值的基本波形称为码元</t>
+  </si>
+  <si>
+    <t>编码方式(数字信号)</t>
+  </si>
+  <si>
+    <t>不归零制</t>
+  </si>
+  <si>
+    <t>信号在每个码元期间不会回归到零电平。正电表示1, 负电表示0。</t>
+  </si>
+  <si>
+    <t>编码效率最高，但是存在收发同步问题。需要添加一条时钟信号线。</t>
+  </si>
+  <si>
+    <t>归零制</t>
+  </si>
+  <si>
+    <t>信号在每个码元期间会回归到零电平。</t>
+  </si>
+  <si>
+    <t>不用单独发送时钟信号线，也称作自同步信号。
+缺点：大部分的数据带宽都用来传输”归零“而浪费掉了。</t>
+  </si>
+  <si>
+    <t>曼彻斯特编码</t>
+  </si>
+  <si>
+    <t>在每个码元的中间时刻电平都会发生跳变。电平的跳变即表示时钟信号，也表示数据。</t>
+  </si>
+  <si>
+    <t>自同步信号
+如向下跳表示1，向上跳表示0。</t>
+  </si>
+  <si>
+    <t>差分曼彻斯特编码</t>
+  </si>
+  <si>
+    <t>每个码元的中间时刻电平都会发生跳变。与曼彻斯特编码不同的是，电平的跳变仅表示时钟信号，而不表示数据。数据的表示在于每一个码元开始处是否有电平跳变：无跳变表示1，有跳变表示0.</t>
+  </si>
+  <si>
+    <r>
+      <t>在传输大量连续1或连续0的情况下，差分曼彻斯特编码比曼彻斯特编码信号的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变化少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+检测有无跳变比检测跳变方向更不容易出错，因此更易于检测。</t>
+    </r>
+  </si>
+  <si>
+    <t>带通调制方法(模拟信号)</t>
+  </si>
+  <si>
+    <t>调幅</t>
+  </si>
+  <si>
+    <t>载波的振幅随着基带数字信号的变化而变化</t>
+  </si>
+  <si>
+    <t>数字 -&gt; 模拟</t>
+  </si>
+  <si>
+    <t>调频</t>
+  </si>
+  <si>
+    <t>载波的频率随着基带数字信号的变化而变化</t>
+  </si>
+  <si>
+    <t>调相</t>
+  </si>
+  <si>
+    <t>载波的初始相位随着基带数字信号的变化而变化</t>
+  </si>
+  <si>
+    <t>混合</t>
+  </si>
+  <si>
+    <t>1个码元表示多个信息，载波的相位和振幅可以结合起来</t>
+  </si>
+  <si>
+    <t>信道的极限容量</t>
+  </si>
+  <si>
+    <t>信号失真的原因</t>
+  </si>
+  <si>
+    <t>传输速率：越高，失真越严重
+传输距离：越远，失真越严重</t>
+  </si>
+  <si>
+    <t>噪声干扰：干扰越大，传输后失真越严重
+传输媒体质量：质量越差，传输后失真越严重</t>
+  </si>
+  <si>
+    <t>奈氏准则</t>
+  </si>
+  <si>
+    <t>理想低通信道的最高码元传输速率=2WBaud</t>
+  </si>
+  <si>
+    <t>W: 理想低通信道的频率带宽
+Baud: 波特，是码元传输速率的单位，即码元/秒</t>
+  </si>
+  <si>
+    <t>香农公示</t>
+  </si>
+  <si>
+    <t>频率带宽受限且有高斯白噪声干扰的信道的极限信息传输速率</t>
+  </si>
+  <si>
+    <t>信道复用技术</t>
+  </si>
+  <si>
+    <t>一条传输媒体上同时是传输多路用户的信号，充分利用传输媒体的带宽。</t>
+  </si>
+  <si>
+    <t>频分复用</t>
+  </si>
+  <si>
+    <t>所有用户同时占用不同的频带资源发送数据</t>
+  </si>
+  <si>
+    <t>时分复用</t>
+  </si>
+  <si>
+    <t>将时间划分为一段段等长的时隙，每一个时分复用的用户，在其相应时隙内独占传输媒体的资源进行通信。</t>
+  </si>
+  <si>
+    <t>在不同的时间占用同样的信噪资源发送数据。
+利用率不高，因为可能用户在时隙期间并不需要发送信息</t>
+  </si>
+  <si>
+    <t>智能时分复用</t>
+  </si>
+  <si>
+    <t>不固定分配时隙，按需动态分配。</t>
+  </si>
+  <si>
+    <t>时隙并不固定分配给某个用户，所以时隙中必须包含用户的地址信息</t>
+  </si>
+  <si>
+    <t>波分复用</t>
+  </si>
+  <si>
+    <t>光的频分复用，在一根光纤上同时传输多个频率详尽的光载波信号。</t>
+  </si>
+  <si>
+    <t>光复用器（合波器） 和 光分用器（分拨器）</t>
+  </si>
+  <si>
+    <t>码分复用</t>
+  </si>
+  <si>
+    <t>码分多址，每个站的码片序列不仅必须各部相同，而且还必须相互正交</t>
+  </si>
+  <si>
+    <t>如这个站要发送1，就发送该码片的原码，如要发送0，就发送给码片的反码</t>
   </si>
   <si>
     <t>其他</t>
@@ -933,52 +1382,1297 @@
     <t>进程在执行时会改变状态。进程状态部分取决于进程的当前活动。</t>
   </si>
   <si>
-    <t>1. 新的（new）： 进程正在创建。</t>
-  </si>
-  <si>
-    <t>2. 运行（running）: 指令正在运行。</t>
-  </si>
-  <si>
-    <t>3. 等待（waiting）: 进程等待某个事件发生（如I/O完成或者某个信号）。</t>
-  </si>
-  <si>
-    <t>4. 就绪（ready）: 进程等待分配处理器</t>
-  </si>
-  <si>
-    <t>5. 终止（terminated） : 进程已经完成执行。</t>
+    <r>
+      <t>1. 新的（new）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 进程正在创建。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. 运行（running）:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 指令正在运行。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. 等待（waiting）: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进程等待某个事件发生（如I/O完成或者某个信号）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. 就绪（ready）: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进程等待分配处理器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. 终止（terminated） : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进程已经完成执行。</t>
+    </r>
+  </si>
+  <si>
+    <t>进程控制块(Process Control Block, PCB)</t>
+  </si>
+  <si>
+    <t>操作系统内的每个进程都是由进程块来表示的，PCB中包含了很多特定的进程相关信息</t>
+  </si>
+  <si>
+    <r>
+      <t>进程包括：
+long state //进程状态
+struct sched_entity se //调度信息
+struct task_struct *parent // 父进程
+struct list_head childred // 子进程
+struct fileds_struct *files //打开的文件
+struct mm_struct *mm //进程地址空间
+在Linux内核中，所有活动进程的表示都采用 task_struct 的双向链表。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内核采用一个指针即 current, 用于指向当前系统正在执行的进程。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. 进程状态(state)：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态可以包括，新的，就绪，运行，等待和停止。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. 程序计数器(PC)：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计数器表示进程将要执行的下一个指令的地址。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. CPU寄存器(CPU register)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：根据计算机体系结构的不同，寄存器的类型和数量也会不同。包括累加器，索引寄存器，堆栈指针，通用寄存器和其他条件码信息寄存器。在发生中断时，这些状态信息和程序计数器一起保存到PCB中，一边进行上下文的切换，以便进程以后能正确地继续执行。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. CPU调度信息(CPU scheduling information):：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这些信息包括进程优先级、调度队列的指针和其他调度参数。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. 内存管理信息(memory-management information):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根据操作系统使用的内存系统这类信息可以包括基地址和界限寄存器的值、页表或短表。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. 记账信息(accounting information)：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这类信息包括CPU时间，实际使用时间时间期限，作业和进程数量等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7. I/O状态信息(I/O status information)：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 这类信息包括分配给进程的I/O设备列表，打开的文件列表。</t>
+    </r>
   </si>
   <si>
     <t>线程</t>
   </si>
   <si>
+    <t>每个进程是一个只能进行单个执行线程(thread)的程序。</t>
+  </si>
+  <si>
     <t>进程调度</t>
   </si>
   <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>多道程序设计的目标是，无论何时都有进程运行，从而最大化CPU利用率。分时系统的目的是在进程之间切换CPU，以便用户在程序运行时能与其交互。进程调度器（process scheduler)选择一个可用进程到CPU上执行。</t>
+  </si>
+  <si>
+    <t>作业队列(job queue)</t>
+  </si>
+  <si>
+    <t>进程在进入系统时，会被加入作业队列(job queue)，这个队列包括系统内所有的进程。</t>
+  </si>
+  <si>
+    <t>就绪队列（ready queue）</t>
+  </si>
+  <si>
+    <t>它保存了驻留在内存中的，就绪的，等待运行的进程， 一般是一个链表结构来实现的。其头节点有两个指针，用于指向链表的第一个和最后一个PCB块；每个PCB有个指针指向队列里的下一个PCB。</t>
+  </si>
+  <si>
+    <t>队列内保存的是PCB</t>
+  </si>
+  <si>
+    <t>设备队列(device queue)</t>
+  </si>
+  <si>
+    <r>
+      <t>假设进程向一个共享设备发出请求，由于具有许多进程，磁盘可能忙于其他进程的I/O进程，因此该进程可能需要等待磁盘。等待I/O设备的进程列表，也被放到了一个队列中，这个队列就是设备队列。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个设备都有属于自己的设备队列。</t>
+    </r>
+  </si>
+  <si>
+    <t>队列图（queueing diagram）</t>
+  </si>
+  <si>
+    <t>1. 新进程被加到就绪队列；它在就绪队列中等待，直到被选中执行或被分派(dispatched).</t>
+  </si>
+  <si>
+    <t>2. 当进程被分配到CPU并执行时</t>
+  </si>
+  <si>
+    <t>2.1 进程可能发出 I/O 请求，并被放到 I/O 队列</t>
+  </si>
+  <si>
+    <t>2.2 进程可能创建一个新的子进程，并等待其终止</t>
+  </si>
+  <si>
+    <t>2.3 进程可能由于中断而被强制释放CPU, 并被放回到就绪队列</t>
+  </si>
+  <si>
+    <t>对于 2.1 和 2.2, 进程最终从等待状态切换到就绪状态，并放回到就绪队列。进程重复这一循环直到终止；然后它会从所有队列中删除，其 PCB 和资源也被释放。</t>
+  </si>
+  <si>
+    <t>调度程序</t>
+  </si>
+  <si>
+    <t>操作系统为了调度必须按照一定的方式从这些队列中选择进程。进程选择通过调度程序（调度器）进行调度。</t>
+  </si>
+  <si>
+    <t>通常，对于有大量的需要执行进程的系统中。可能进程的任务不能全部加载到内存中，这个时候会有部分的进程保存在磁盘中。这部分磁盘的数据，他作为一个虚拟的内存池被称为虚拟内存。</t>
+  </si>
+  <si>
+    <r>
+      <t>长期调度程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 会把在磁盘上的进程加载到内存，把最近不会被执行的进程从内存中挪出。</t>
+    </r>
+  </si>
+  <si>
+    <t>长期调度程序是指从池中选择进程，并装入内存准备执行，其使用频率比较低，主要用来控制内存中进程的数量；</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">短期调度程序(CPU调度程序) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从就绪队列中选择进程分配CPU。</t>
+    </r>
+  </si>
+  <si>
+    <t>中期调度(中级调度)，又称为 交换调度，是指将进程中内存或CPU竞争中移出，从而降低多道程序设计的程度，之后进程被重新装入内存；</t>
+  </si>
+  <si>
+    <r>
+      <t>短期调度程序：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必须经常为CPU选择新的进程。进程可能执行几毫秒，就会等待 I/O 请求。</t>
+    </r>
+  </si>
+  <si>
+    <t>短期调度(低级调度)，又称为 进程调度，是指按照一定的策略和算法，将CPU分配给一个处于就绪的进程，分为 抢占式 和 非抢占式。</t>
+  </si>
+  <si>
+    <r>
+      <t>长期调度程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>序执行并不频繁，但是它控制着内存中进程的数量(多道程序程度)，也就是并发进程的程度。</t>
+    </r>
+  </si>
+  <si>
+    <t>I/O密集型进程：执行 I/O 比执行计算需要花费更多时间</t>
+  </si>
+  <si>
+    <t>CPU 密集型进程, 很少产生 I/O 请求，而是将更多时间用于执行计算</t>
+  </si>
+  <si>
+    <r>
+      <t>如果所有进程都是I/O密集型进程，那么I/O设备队列一直都是满的，而就绪队列是空的，短期调度程序就一直处于空闲。
+当所有进程都是CPU密集型进程，那么I/O 设备对列都是空的，I/O设备就没有得到使用。所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长期调度程序是保证系统使用CPU和I/O设备平衡的。</t>
+    </r>
+  </si>
+  <si>
+    <t>长期调度程序的目标</t>
+  </si>
+  <si>
+    <t>中期调度程序(medium-term scheduler), 核心思想是可以将进程从内存(或从CPU竞争)中移除，从而降低多道程序程度。之后，进程可悲重新调入内存，并从中断处执行。这种方案称为交换(swap)。通过中期调度程序，进程可换出(swap out), 并在后来可换入(swap in)。</t>
+  </si>
+  <si>
+    <t>上下文切换</t>
+  </si>
+  <si>
+    <t>中断导致CPU从执行当前任务改变到执行内核程序。当中断发生时，系统需要保存当前运行在CPU上的进程的上下文，以便在处理后能够恢复上下文，即先挂起进程，再恢复进程。进程上下文采用进程PCB表示。</t>
+  </si>
+  <si>
+    <t>上下文切换保存的是PCB</t>
+  </si>
+  <si>
+    <t>状态保存：保存CPU当前状态
+状态恢复：重新开始执行</t>
+  </si>
+  <si>
+    <t>切换CPU到另一个进程需要保存当前进程装填和恢复另一个进程的状态，这个任务称为上下文切换（context switch）。当进行上下文切换时，内核会将旧进程状态保存在其PCB中，然后加载调度而要执行的新进程的上下文。</t>
+  </si>
+  <si>
+    <t>上下文切换的时间是存粹的开销。</t>
+  </si>
+  <si>
     <t>进程运行</t>
   </si>
   <si>
+    <t>进程创建</t>
+  </si>
+  <si>
+    <t>创建简称称为父进程，新建的进程称为子进程。每个新进程可以再创建其他进程，从而形成进程树（process tree）</t>
+  </si>
+  <si>
+    <t>进程标识</t>
+  </si>
+  <si>
+    <t>进程标识符（process identifier, pid），通常是一个整数</t>
+  </si>
+  <si>
+    <t>init 进程</t>
+  </si>
+  <si>
+    <t>pid 是1， 是所有用户进程的父进程</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>进程需要一定的资源 (如 CPU 时间、内存、文件、I/O 设备) 来完成其任务。在一个进程创建子进程时，子进程可能从操作系统那里直接获得资源，也可能只从其父进程那里获得资源。父进程可能必须在其子进程之间分配资源或共享资源(如内存或文件)。限制子进程只能使用父进程的资源能防止创建过多的进程带来的系统超载。</t>
+  </si>
+  <si>
+    <t>初始化数据</t>
+  </si>
+  <si>
+    <t>在子进程创建时，除了得到各种物理和逻辑资源外，它还能从父进程那里得到所需的初始化数据(或输入)。</t>
+  </si>
+  <si>
+    <t>进程执行（创建新进程）</t>
+  </si>
+  <si>
+    <t>1. 父进程与子进程并发执行
+2. 父进程等待，直到某个或全部子进程执行完</t>
+  </si>
+  <si>
+    <t>进程地址空间（创建新进程）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 子进程是父进程的复制品
+      2. 子进程加载另一个新程序
+</t>
+  </si>
+  <si>
+    <t>进程终止</t>
+  </si>
+  <si>
+    <t>当一个进程终止时，操作系统会释放其资源。不过，它位于进程表中的条目还是在的，直到它的父进程调用wait(). 因为进程表包含了进程的退出状态。</t>
+  </si>
+  <si>
+    <t>子进程退出后，在父进程调用wait()前，子进程的PCB还是存在的。这样的进程称为僵尸进程，一旦父进程调用了 wait(), 进程表的条目就会释放。</t>
+  </si>
+  <si>
+    <t>僵尸进程</t>
+  </si>
+  <si>
+    <t>当进程已经终止，但是其父进程尚未调用wait(), 这样的进程称为僵尸进程(zombie process)。僵尸只是一个短暂存在，一旦父进程调用了 wait(), 僵尸进程的进程标识符和它在进程表中的条目就会释放。</t>
+  </si>
+  <si>
+    <t>孤儿进程</t>
+  </si>
+  <si>
+    <t>如果父进程没有调用wait()就终止，自己成称为孤儿进程。Linux的处理方案是：init定期调用wait(), 收集孤儿进程的退出状态，并释放孤儿进程标识符和进程表条目</t>
+  </si>
+  <si>
     <t>进程间通信</t>
   </si>
   <si>
+    <t>通信模型</t>
+  </si>
+  <si>
+    <t>1. 共享内存（shared memory）：共享内存模型会建立一块供协作进程共享的内存区域，进程通过向此共享区域读出或写入数据来交换信息。
+2. 消息传递（message passing）：在协作进程间交换消息来实现通信。</t>
+  </si>
+  <si>
+    <t>。消息传递对于交换较少数量的数据很有用，因为无需避免冲突。对于分布式系统，消息传递也比共享内存更易实现。共享内存可以快于消息传递，这是因为消息传递的实现经常采用系统调用，因此需要消耗更多时间以便内核介入。</t>
+  </si>
+  <si>
+    <t>消息传递</t>
+  </si>
+  <si>
+    <t>共享内存系统仅在建立共享内存区域时需要系统调用；一旦建立共享内存，所有访问都可作为常规内存访问，无需借助内核。</t>
+  </si>
+  <si>
+    <t>共享内存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采用共享内存的进程间通信，需要通信进程建立共享内存区域。通常，共享内存区域驻留在创建共享内存段的进程地址空间内。其他希望使用这个共享内存段进行通信的进程应将其附加到自己的地址空间。
+</t>
+  </si>
+  <si>
+    <t>通常操作系统试图阻止一个进程访问另一进程的内存。共享内存需要两个或更多的进程同意取消这一限制，这样它们通过在共享区域内读出或写入来交换信息。</t>
+  </si>
+  <si>
+    <r>
+      <t>解决生产者-消费者问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方法之一是采用共享内存。</t>
+    </r>
+  </si>
+  <si>
+    <t>进程负责确保它们不向同一位置同时写入数据。</t>
+  </si>
+  <si>
+    <t>无界缓冲区没有限制缓冲区的大小。消费者可能不得不等待新的项，但生产者总是可以产生新项。</t>
+  </si>
+  <si>
+    <t>生产者/消费者</t>
+  </si>
+  <si>
+    <t>界缓冲区假设固定大小的缓冲区。对于这种情况，如果缓冲区空，那么消费者必须等待；并且如果缓冲区满，那么生产者必须等待。</t>
+  </si>
+  <si>
+    <t>消息传递工具提供至少两种操作：send(message) 和 receive(message)。</t>
+  </si>
+  <si>
+    <t>消息传递（直接/间接通信）</t>
+  </si>
+  <si>
+    <t>直接通信：需要通信的每个进程必须明确指定通信的接收者或发送者。</t>
+  </si>
+  <si>
+    <t>直接通信-对称</t>
+  </si>
+  <si>
+    <t>1. send(P,message)：向进程P发送 message。
+2. receive(Q,message)：从进程 Q 接收 message。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 每个链路只与两个进程相关。
+每对进程之间只有一个链路。</t>
+  </si>
+  <si>
+    <t>这种方案展示了寻址的对称性，即发送和接收进程必须指定对方，以便通信。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> send(P，message)：向进程 P 发送 message。
+    receive(id, message)：从任何进程，接收 message，这里变量 id 被设置成与其通信进程的名称。
+</t>
+  </si>
+  <si>
+    <t>直接通信-非对称</t>
+  </si>
+  <si>
+    <t>通过邮箱或端口来发送和接收消息。邮箱可以抽象成一个对象，进程可以向其中存放消息，也可从中删除消息，每个邮箱都有一个唯一的标识符。</t>
+  </si>
+  <si>
+    <t>间接通信</t>
+  </si>
+  <si>
+    <t>，POSIX 消息队列采用一个整数值来标识一个邮箱。一个进程可以通过多个不同邮箱与另一个进程通信，但是两个进程只有拥有一个共享邮箱时才能通信</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send(A, message)：向邮箱 A 发送 message。
+    receive(A，message)：从邮箱 A 接收 message。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只有在两个进程共享一个邮箱时，才能建立通信链路。
+    一个链路可以与两个或更多进程相关联。
+    两个通信进程之间可有多个不同链路，每个链路对应于一个邮箱。
+</t>
+  </si>
+  <si>
+    <t>间接通信-特点</t>
+  </si>
+  <si>
+    <t>消息传递（同步/异步通信）</t>
+  </si>
+  <si>
+    <t>阻塞：同步
+非阻塞：异步</t>
+  </si>
+  <si>
+    <r>
+      <t>阻塞发送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：发送进程阻塞，直到消息由接收进程或邮箱所接收。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>非阻塞发送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：发送进程发送消息，并且恢复操作。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>阻塞接收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：接收进程阻塞，直到有消息可用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>非阻塞接收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：接收进程收到一个有效消息或空消息。</t>
+    </r>
+  </si>
+  <si>
+    <t>消息传递（缓存）</t>
+  </si>
+  <si>
+    <t>不管通信是直接的还是间接的，通信进程交换的消息总是驻留在临时队列中。</t>
+  </si>
+  <si>
+    <t>1. 零容量：队列的最大长度为 0。因此，链路中不能有任何消息处于等待。对于这种情况，发送者应阻塞，直到接收者接收到消息。</t>
+  </si>
+  <si>
+    <t>无缓冲消息系统</t>
+  </si>
+  <si>
+    <t>2. 有限容量：队列长度为有限的 n。因此，最多只能有 n 个消息驻留其中。如果在发送新消息时队列未满，那么该消息可以放在队列中（或者复制消息或者保存消息的指针），且发送者可以继续执行而不必等待。如果链路已满，那么发送者应阻塞，直到队列空间有可用的为止。</t>
+  </si>
+  <si>
+    <t>自动缓冲消息系统</t>
+  </si>
+  <si>
+    <t>3. 无限容量：队列长度可以无限，因此，不管多少消息都可在其中等待。发送者从不阻塞。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">客户机-服务器系统通信 </t>
+  </si>
+  <si>
+    <t>套接字</t>
+  </si>
+  <si>
+    <t>通过网络通信的每对进程需要使用一对套接字，即每个进程各有一个。每个套接字由一个IP地址和一个端口号组成。</t>
+  </si>
+  <si>
+    <t>远程过程调用</t>
+  </si>
+  <si>
+    <t>管道</t>
+  </si>
+  <si>
+    <t>普通管道允许两个进程按标准的生产者-消费者进行通信</t>
+  </si>
+  <si>
     <t>多线程编程</t>
   </si>
   <si>
-    <t>同步</t>
-  </si>
-  <si>
-    <t>内存管理</t>
-  </si>
-  <si>
-    <t>内存</t>
-  </si>
-  <si>
-    <t>虚拟内存</t>
-  </si>
-  <si>
-    <t>存储管理</t>
-  </si>
-  <si>
-    <t>文件系统</t>
+    <r>
+      <t>每个线程是CPU使用的一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本单元：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包括线程ID、程序计数器、寄存器组和堆栈。与同一个进程的其他线程共享代码段、数据段和其他操作系统资源。</t>
+    </r>
+  </si>
+  <si>
+    <t>动机</t>
+  </si>
+  <si>
+    <t>相比于多进程开销更小</t>
+  </si>
+  <si>
+    <t>多线程优点</t>
+  </si>
+  <si>
+    <t>1. 响应性：即使部分阻塞或者执行冗长操作，它仍可以继续执行，从而增加对用户的响应程度。</t>
+  </si>
+  <si>
+    <t>一个线程阻塞，另外线程可以继续执行其他任务。相比单线程响应性更好。</t>
+  </si>
+  <si>
+    <r>
+      <t>2. 资源共享：进程只能通过共享内存和消息传递之类的技术共享资源。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程默认共享他们所属进程的内存和资源。</t>
+    </r>
+  </si>
+  <si>
+    <t>允许一个应用程序在同一地址空间内有多个不同活动线程。</t>
+  </si>
+  <si>
+    <t>3. 经济：进程创建所需的内存和资源分配非常昂贵。由于线程共享它们所属进程的资源，所以创建和切换线程更加经济。</t>
+  </si>
+  <si>
+    <t>4. 可伸缩性：线程可在多处理核上并行运行。</t>
+  </si>
+  <si>
+    <t>单线程进程只能运行在一个CPU上</t>
+  </si>
+  <si>
+    <t>多核编程</t>
+  </si>
+  <si>
+    <t>多核/多处理器系统</t>
+  </si>
+  <si>
+    <t>计算和是在多个CPU芯片上还是在单个CPU芯片上。</t>
+  </si>
+  <si>
+    <t>单核</t>
+  </si>
+  <si>
+    <t>一个应用有4个线程，对于单核系统，并发是随着时间推移叫做执行。因为处理和只能统一时间执行单个线程。</t>
+  </si>
+  <si>
+    <t>多核</t>
+  </si>
+  <si>
+    <t>并发表示线程能够并行运行，因为系统可以为每个核分配一个单独线程。</t>
+  </si>
+  <si>
+    <t>并行</t>
+  </si>
+  <si>
+    <t>可以同时执行多个任务</t>
+  </si>
+  <si>
+    <t>并发</t>
+  </si>
+  <si>
+    <t>支持多个任务，所有任务都能取得进展。</t>
+  </si>
+  <si>
+    <t>并行类型</t>
+  </si>
+  <si>
+    <t>数据并行：将数据分布于多个计算核上，并在每个核上执行相同操作。</t>
+  </si>
+  <si>
+    <t>一个线程执行 N1...N10 另外一个线程执行 N11...N12</t>
+  </si>
+  <si>
+    <t>任务必行：将任务（线程）分配到多个计算核。每个线程执行一个独特的操作。</t>
+  </si>
+  <si>
+    <t>多线程模型</t>
+  </si>
+  <si>
+    <t>用户线程</t>
+  </si>
+  <si>
+    <t>用户线程受内核支持，而无需内核管理</t>
+  </si>
+  <si>
+    <t>内核线程</t>
+  </si>
+  <si>
+    <t>而内核线程由操作系统支持和管理。事实上所有当代操作系统都支持内核线程。</t>
+  </si>
+  <si>
+    <t>关联</t>
+  </si>
+  <si>
+    <t>在用户线程和内核线程之间必然存在一种关系。</t>
+  </si>
+  <si>
+    <t>多对一模型</t>
+  </si>
+  <si>
+    <t>多对一模型将许多用户级线程映射到一个内核线程。线程管理由线程库在用户空间进行的，因而效率比较高。但是如果一个线程执行了阻塞系统调用，那么整个线程会阻塞。因为任意时刻只能有一个线程能够访问内核，多个线程不能并行运行在多处理器上。</t>
+  </si>
+  <si>
+    <t>早期采用，目前已经不在采用
+没有增加并发性</t>
+  </si>
+  <si>
+    <t>一对一模型</t>
+  </si>
+  <si>
+    <t>对一模型每个用户线程映射到一个内核线程。该模型在一个线程执行阻塞系统调用时，能允许另一个线程继续执行。它也允许多个线程能并行运行在多处理器系统上，这种模型的唯一缺点是每创建一个用户线程就会创建一个相应的内核线程。由于创建内核线程的开销会影响应用程序的性能，所以这种模型的绝大多数实现限制了操作系统所支持的线程数量。</t>
+  </si>
+  <si>
+    <t>Linux, Windows 都实现了一对一模型
+系统限制创建线程数量</t>
+  </si>
+  <si>
+    <t>多对多模型</t>
+  </si>
+  <si>
+    <t>多对多模型多路复用了许多用户线程到同样数量或更少数量的内核线程上。内核线程数量与特定应用程序或机器有关。多对多模型没有这两者的缺点：开发人员可创建任意多的用户线程，并且相应内核线程能在多处理器系统上并发执行。而且当一个线程执行阻塞系统调用时，内核能调度另一个线程来执行。</t>
+  </si>
+  <si>
+    <t>多对多模型-双层模型</t>
+  </si>
+  <si>
+    <t>多路复用了许多用户线程到同样数量或更少数量的内核线程上，但也允许将一个用户线程绑定到某个内核线程上。这个变种有是被称为二级模型。</t>
+  </si>
+  <si>
+    <t>允许将一个用户线程绑定到某个内核线程上。</t>
+  </si>
+  <si>
+    <t>线程库</t>
+  </si>
+  <si>
+    <t>为程序员提供创建和管理线程的API</t>
+  </si>
+  <si>
+    <t>多线程创建策略</t>
+  </si>
+  <si>
+    <t>异步线程：一旦父进程创建了一个子线程后，父线程就恢复自身的执行，这样父线程与子线程会并发执行。每个线程的运行独立于其他线程，父线程无需知道子线程何时终止。</t>
+  </si>
+  <si>
+    <t>同步线程：如果父线程创建一个或多个子线程后，那么在恢复执行之前应等待所有子线程的终止。分叉-连接，一旦每个线程完成它的工作，它就会终止，并与父线程连接。只有在所有子线程连接之后，父线程才恢复执行。</t>
+  </si>
+  <si>
+    <t>Pthreads</t>
+  </si>
+  <si>
+    <t>Pthread是由POSIX标准为线程创建和同步定义的API。</t>
+  </si>
+  <si>
+    <t>Pthread_t tid声明了所常见线程的标识符。</t>
+  </si>
+  <si>
+    <t>每个线程都有一组属性，包括栈大小和调度信息。Pthread_attr_t attr表示线程的属性，通过函数调用pthread_attr_init(&amp;attr)来设置这些属性。</t>
+  </si>
+  <si>
+    <t>Pthread_create()创建一个独立线程。除了传递线程标识符和线程属性外，还要传递函数名称。</t>
+  </si>
+  <si>
+    <t>父线程通过调用pthread_join()函数等待子线程的完成。</t>
+  </si>
+  <si>
+    <t>调用pthread_exit()之后会终止。</t>
+  </si>
+  <si>
+    <t>隐式多线程</t>
+  </si>
+  <si>
+    <t>将多线程的创建与管理交给编译器和运行时库来完成。</t>
+  </si>
+  <si>
+    <t>JVM 会根据宿主机的多线程模型来封装自己的多线程调用</t>
+  </si>
+  <si>
+    <t>线程池</t>
+  </si>
+  <si>
+    <t>在进程开始时创建一定数量的线程，并加到池中以等待工作。当服务器收到请求时，它会唤醒池内的一个线程（如果有可用的线程），并将需要服务的请求传递给它。一旦线程完成了服务，它会返回到池中再等待工作。如果池内没有可用线程，那么服务器会等待，直到有空线程为止。</t>
+  </si>
+  <si>
+    <t>线程池优点</t>
+  </si>
+  <si>
+    <t>1. 用现有线程服务请求比等待创建一个线程更快</t>
+  </si>
+  <si>
+    <t>2. 线程池限制了任何时候可用线程的数量。这对那些不能支持大量并发线程的系统非常重要</t>
+  </si>
+  <si>
+    <t>3. 将要执行任务从创建任务的机制中分离出来，允许我们采用不同策略运行任务。</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <r>
+      <t>识别</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并行区域(parallel region),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 即可并行运行的代码快。这些指令指示 OpenMP 运行时库来并行执行这些区域。</t>
+    </r>
+  </si>
+  <si>
+    <t>大中央调度(Grand Central Dispatch, GCD)</t>
+  </si>
+  <si>
+    <t>增加了块（block）的扩展。</t>
+  </si>
+  <si>
+    <t>串行调度队列，并发调度队列</t>
+  </si>
+  <si>
+    <t>多线程问题</t>
+  </si>
+  <si>
+    <t>fork()</t>
+  </si>
+  <si>
+    <t>调用fork(), 而不调用 exec(), 新进程重复所有线程。</t>
+  </si>
+  <si>
+    <t>复制所有线程</t>
+  </si>
+  <si>
+    <t>exec()</t>
+  </si>
+  <si>
+    <t>如果一个线程调用系统调用exec()，那么exec()参数所指定的程序会替换整个进程，包括所有线程。</t>
+  </si>
+  <si>
+    <t>仅复制调用线程</t>
+  </si>
+  <si>
+    <t>信号处理</t>
+  </si>
+  <si>
+    <t>UNIX信号（signal）用于通知进程某个特定事件已经发生。</t>
+  </si>
+  <si>
+    <t>1. 信号是由特定事件的发生而产生的</t>
+  </si>
+  <si>
+    <t>2. 信号被传递给某个进程</t>
+  </si>
+  <si>
+    <t>3. 信号一旦收到就应处理</t>
+  </si>
+  <si>
+    <t>同步信号</t>
+  </si>
+  <si>
+    <t>同步信号发送到由于执行操作导致这个信号的同一进程</t>
+  </si>
+  <si>
+    <t>异步信号</t>
+  </si>
+  <si>
+    <t>当一个信号是由运行程序意外的事件产生的，该进程就异步接收这一信号</t>
+  </si>
+  <si>
+    <t>信号处理机制</t>
+  </si>
+  <si>
+    <t>1. 缺省的信号处理程序
+2. 用户定义的信号处理程序</t>
+  </si>
+  <si>
+    <t>信号传递多线程程序</t>
+  </si>
+  <si>
+    <t>1. 传递信号到信号所使用的线程</t>
+  </si>
+  <si>
+    <t>2. 传递信号到进程内的每个线程</t>
+  </si>
+  <si>
+    <t>3. 传递信号到进程内的某些线程</t>
+  </si>
+  <si>
+    <t>4. 规定一个特定线程以接收进程的所有信号</t>
+  </si>
+  <si>
+    <t>线程撤销</t>
+  </si>
+  <si>
+    <t>线程撤销（thread cancellation）是在线程完成之前终止线程</t>
+  </si>
+  <si>
+    <t>目标线程的撤销：异步撤销（一个线程立即终止目标线程）、延迟撤销（目标线程不断检查它是否应终止，这允许目标线程有机会有序终止自己）</t>
+  </si>
+  <si>
+    <t>采用延迟取消时，允许一个线程检查它是否是在安全的点被取消，pthread称这些点为取消点（cancellation point）</t>
+  </si>
+  <si>
+    <t>线程本地存储</t>
+  </si>
+  <si>
+    <t>每个线程可能需要它自己的某些数据，称这种数据为线程本地存储（Thread-Local Storage, TLS）</t>
+  </si>
+  <si>
+    <t>轻量级进程(LWP)</t>
+  </si>
+  <si>
+    <r>
+      <t>在实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多对多或双层模型时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在用户和内核线程之间增加一个中间数据结构。这个数据结构被称为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轻量级进程（LightWeight Process, LWP）。</t>
+    </r>
+  </si>
+  <si>
+    <t>每个LWP都与一个内核线程相连，只有内核线程才能通过操作系统调度以便运行于物理处理器。</t>
+  </si>
+  <si>
+    <t>内核提供一组虚拟处理器（LWP）给应用程序，应用程序可以调度用户线程到任何可以用虚拟处理器。</t>
+  </si>
+  <si>
+    <t>轻量级进程(LWP)是一种由内核支持的用户线程。它是基于内核线程的高级抽象，因此只有先支持内核线程，才能有LWP。每一个进程有一个或多个LWPs，每个LWP由一个内核线程支持。这种模型实际上就是恐龙书上所提到的一对一线程模型。在这种实现的操作系统中，LWP就是用户线程。</t>
+  </si>
+  <si>
+    <t>由于每个LWP都与一个特定的内核线程关联，因此每个LWP都是一个独立的线程调度单元。即使有一个LWP在系统调用中阻塞，也不会影响整个进程的执行。</t>
+  </si>
+  <si>
+    <t>Linux 线程</t>
+  </si>
+  <si>
+    <t>通过系统调用 fork() 提供进程复制的传统功能</t>
+  </si>
+  <si>
+    <t>调用 fork() 具有父进程所有的数据结构(struct task_struct)的副本。数据结构包含指向其他存储这些数据的数据结构的指针。</t>
+  </si>
+  <si>
+    <t>通过系统调用 clone() 提供创建线程的功能</t>
+  </si>
+  <si>
+    <t>调用 clone() 创建了新任务，不过新任务不具有所有数据结构的副本，新任务，根据传递给 clone() 的标志组，指向(point to)父任务的数据结构。</t>
+  </si>
+  <si>
+    <t>在调用 clone() 时传递参数 CLONE_FS、CLONE_VM、CLONE_SIGHAND 和 CLONE_FILES 标志，那么父子任务将共享相同的文件系统信息、内存空间、信号处理程序和打开的文件集。相当于线程创建。</t>
+  </si>
+  <si>
+    <t>Linux 不区分进程和线程</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>名词</t>
+  </si>
+  <si>
+    <t>速率</t>
+  </si>
+  <si>
+    <t>数据的传送速率（即每秒传送多少个比特），也称为比特率。单位是比特(b)每秒。</t>
+  </si>
+  <si>
+    <t>比如网速为100M, 省略了单位 b/s</t>
+  </si>
+  <si>
+    <t>数据传送速率遵循木桶效应</t>
+  </si>
+  <si>
+    <t>数据传送速率 = min(主机的接口速率，线路带宽，交换机或路由器的接口速率）</t>
+  </si>
+  <si>
+    <t>带宽（在模拟信号系统中的意义）</t>
+  </si>
+  <si>
+    <t>某个信号所包含的各种不同频率成分所占据的频率范围，单位是赫兹(Hz)。表示通信线路允许通过的信号频带的范围就称为线路的带宽。</t>
+  </si>
+  <si>
+    <t>带宽（计算机网络中的意义）</t>
+  </si>
+  <si>
+    <r>
+      <t>通信线路所能传送数据的能力，即在单位时间内从网络中的某一点到另一点搜能通过的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最高数据率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。单位是比特每秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>线路的”频率带宽“越宽，其所传输数据的”最高数据率“越高</t>
+  </si>
+  <si>
+    <t>吞吐量(throughput)</t>
+  </si>
+  <si>
+    <r>
+      <t>在单位时间内通过某个网络或接口的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>吞吐量会受网络带宽的限制</t>
+  </si>
+  <si>
+    <t>时延</t>
+  </si>
+  <si>
+    <t>数据(分组, 比特)从网络的一端传送到另一端所耗费的时间。包括发送时延、传播时延、排队时延、处理时延</t>
+  </si>
+  <si>
+    <t>发送时延（时延）</t>
+  </si>
+  <si>
+    <t>主机或路由器发送分组所耗费的时间，从发送分组的第一个比特开始，到该分组的最后一个比特发送完毕为止所耗费的时间。</t>
+  </si>
+  <si>
+    <t>发送时延 = 分组长度(b) / 发送速率(b/s)</t>
+  </si>
+  <si>
+    <t>传播时延（时延）</t>
+  </si>
+  <si>
+    <t>电磁波在链路(传播介质)上传播一定的距离所耗费的时间</t>
+  </si>
+  <si>
+    <t>传播时延 = 链路长度(m) / 电磁波在链路上传播速率(m/s)</t>
+  </si>
+  <si>
+    <t>排队时延（时延）</t>
+  </si>
+  <si>
+    <t>分组在路由器的输入队列和输出队列中排队缓存所耗费的时间就是排队时延</t>
+  </si>
+  <si>
+    <t>当分组进入路由器后，会在路由器的输入队列中排队缓存并等待处理。</t>
+  </si>
+  <si>
+    <t>当路由器确定分组的转发接口后，分组会在输出队列中排队缓存并等待转发。</t>
+  </si>
+  <si>
+    <t>处理时延（时延）</t>
+  </si>
+  <si>
+    <t>路由器对分组进行一系列处理工作所耗费的时间就是处理时延。</t>
+  </si>
+  <si>
+    <t>如检查分组的首播是否误码、提取分布首部的目的地址、为分组查找相应的转发接口以及修改分组首部中的部分内容（如生存时间）等。</t>
+  </si>
+  <si>
+    <t>时延带宽积</t>
+  </si>
+  <si>
+    <t>传播时延和带宽的乘积（以比特为单位的链路长度）</t>
+  </si>
+  <si>
+    <t>时延带宽积 = 传播时延(s) x 带宽(b/s)</t>
+  </si>
+  <si>
+    <t>如把链路看做一个圆柱形管道，管道的长度是链路的传播时延，横截面积是链路的宽度。时延带宽积相等于管道的容器，表示可以容纳的比特数量</t>
+  </si>
+  <si>
+    <t>往返时间（Round-Trip Time, RTT）</t>
+  </si>
+  <si>
+    <t>从发送端发送数据分组开始，到发送端收到接口端发来的响应确认分组为止，总共耗费的时间。</t>
+  </si>
+  <si>
+    <t>链路利用率</t>
+  </si>
+  <si>
+    <t>某条链路有百分之几的时间是被利用的（即有数据通过）</t>
+  </si>
+  <si>
+    <t>网络利用率</t>
+  </si>
+  <si>
+    <t>网络中所有链路的链路利用率的加权平均</t>
+  </si>
+  <si>
+    <t>当某链路的利用率增大时，该链路引起的时延就会迅速增加。</t>
+  </si>
+  <si>
+    <t>丢包率</t>
+  </si>
+  <si>
+    <t>是指在一定的时间范围内，传输过程中丢失的分组数量与总分组数量的比率。</t>
+  </si>
+  <si>
+    <t>1. 因误码而丢弃
+2. 分组交换机根据丢弃策略主动丢弃</t>
   </si>
 </sst>
 </file>
@@ -991,7 +2685,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,15 +2694,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1025,6 +2719,28 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB22222"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1191,13 +2907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="8" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.25"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,192 +3293,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1770,9 +3501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1786,26 +3514,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1813,14 +3529,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1837,13 +3547,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2330,13 +4064,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1713865</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3187065</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2354,7 +4088,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26676985" y="74888725"/>
+          <a:off x="26676985" y="101698425"/>
           <a:ext cx="1473200" cy="1999615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2372,13 +4106,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4627245</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>410845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2396,7 +4130,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25820370" y="76979780"/>
+          <a:off x="25820370" y="103789480"/>
           <a:ext cx="3769995" cy="1790065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2404,6 +4138,720 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1280795</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3830320</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26243915" y="105827195"/>
+          <a:ext cx="2549525" cy="3925570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3834130</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>448310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25344755" y="110347760"/>
+          <a:ext cx="3452495" cy="1873250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>369570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4280535</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>311785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25417145" y="112650270"/>
+          <a:ext cx="3826510" cy="2482215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4232910</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>480695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25661620" y="118932325"/>
+          <a:ext cx="3534410" cy="2973070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64135</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4865370</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25027255" y="127154940"/>
+          <a:ext cx="4801235" cy="3107690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4543425</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>472440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25067260" y="141977110"/>
+          <a:ext cx="4439285" cy="2907030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>502285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1446530</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25102820" y="149993985"/>
+          <a:ext cx="1306830" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2003425</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4161155</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>631190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26966545" y="150104475"/>
+          <a:ext cx="2157730" cy="1034415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1179195</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>505460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="技术分享"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19" r:link="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25112980" y="151377650"/>
+          <a:ext cx="1029335" cy="880110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2092325</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3456305</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="技术分享"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20" r:link="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27055445" y="151281130"/>
+          <a:ext cx="1363980" cy="991235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3590925</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>287020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="这里写图片描述"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21" r:link="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25344120" y="169156380"/>
+          <a:ext cx="3209925" cy="2186940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>429260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30879415" y="87925910"/>
+          <a:ext cx="5186680" cy="2940050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4039235</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25170765" y="91024710"/>
+          <a:ext cx="3831590" cy="1957705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83185</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3542665</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>446405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25046305" y="93023690"/>
+          <a:ext cx="3459480" cy="1923415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140335</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>156845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4505325</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>274955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25103455" y="97197545"/>
+          <a:ext cx="4364990" cy="2658110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179705</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3112770</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>440055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="在这里插入图片描述"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26" r:link="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25142825" y="88990170"/>
+          <a:ext cx="2933065" cy="362585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252095</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2981325</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>499110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="在这里插入图片描述"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27" r:link="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25215215" y="89510235"/>
+          <a:ext cx="2729230" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -2671,12 +5119,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1"/>
@@ -2687,45 +5135,45 @@
     <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="129.171875" style="1" customWidth="1"/>
     <col min="7" max="7" width="82.6796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.4140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="70.8359375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="4" t="s">
@@ -2734,883 +5182,883 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" ht="93" customHeight="1" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" ht="110" customHeight="1" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" ht="91" customHeight="1" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" ht="103" customHeight="1" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" ht="103" customHeight="1" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" ht="128" customHeight="1" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="14" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="14" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="14" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="14" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="14" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="14" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="16"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="14" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="16"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="14" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="16"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="14" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="16"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="14" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="14" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="16"/>
-      <c r="I24"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="16"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="16"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="16"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="14" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="16"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="16"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="19" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="16"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" ht="54" customHeight="1" spans="1:8">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="14" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" customHeight="1" spans="1:13">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="21"/>
-      <c r="M36"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="10"/>
+      <c r="M36" s="26"/>
     </row>
     <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="22"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="22"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" ht="60" customHeight="1" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="23"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" customHeight="1" spans="1:13">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="14" t="s">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="22"/>
-      <c r="M41" s="25"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="12"/>
+      <c r="M41" s="27"/>
     </row>
     <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="14" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="22"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="14" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="25"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="27"/>
     </row>
     <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="14" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="22"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="14" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="23"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" customHeight="1" spans="1:10">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="21"/>
-      <c r="I46"/>
-      <c r="J46" s="25"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" ht="90" customHeight="1" spans="1:8">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="14" t="s">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="22"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="14" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="22"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="14" t="s">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="23"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H50" s="16"/>
+      <c r="H50" s="19"/>
     </row>
     <row r="51" ht="53" customHeight="1" spans="1:8">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="14" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="16"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" ht="80" customHeight="1" spans="1:8">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="14" t="s">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14" t="s">
+      <c r="F52" s="19"/>
+      <c r="G52" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="16"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" ht="159" customHeight="1" spans="1:8">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="14" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H53" s="16"/>
+      <c r="H53" s="19"/>
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="16"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="5" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H55" s="21"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="14" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H56" s="22"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="14" t="s">
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="22"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="14" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="22"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="14" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="23"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="5" t="s">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="21"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="14" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="22"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="14" t="s">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="22"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="14" t="s">
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="24" t="s">
+      <c r="G63" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H63" s="22"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="14" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="22"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="14" t="s">
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="22"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="14" t="s">
+      <c r="C66" s="12"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G66" s="14"/>
-      <c r="H66" s="23"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9" t="s">
+      <c r="C67" s="14"/>
+      <c r="D67" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="H67" s="16"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="4"/>
@@ -3618,1121 +6066,3775 @@
       <c r="C68" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H68" s="16"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="26" t="s">
+      <c r="D69" s="5"/>
+      <c r="E69" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H69" s="30"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="26" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="31"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="5"/>
     </row>
     <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="26" t="s">
+      <c r="D71" s="5"/>
+      <c r="E71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="31"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="5"/>
     </row>
     <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="14" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="14"/>
-      <c r="H72" s="31"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="5"/>
     </row>
     <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="14" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G73" s="14"/>
-      <c r="H73" s="31"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="5"/>
     </row>
     <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="14" t="s">
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="31"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="5"/>
     </row>
     <row r="75" customHeight="1" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F75" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="32"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="14" t="s">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="16"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
     </row>
     <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="26" t="s">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H77" s="16"/>
+      <c r="H77" s="19"/>
     </row>
     <row r="78" customHeight="1" spans="1:8">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="14" t="s">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="16"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
     </row>
     <row r="79" customHeight="1" spans="1:8">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="14" t="s">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="16"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
     </row>
     <row r="80" customHeight="1" spans="1:8">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="14" t="s">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="16"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" customHeight="1" spans="1:8">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="14" t="s">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="16"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82" customHeight="1" spans="1:8">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="26" t="s">
+      <c r="C82" s="5"/>
+      <c r="D82" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H82" s="16"/>
+      <c r="H82" s="19"/>
     </row>
     <row r="83" customHeight="1" spans="1:8">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="26" t="s">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G83" s="14"/>
-      <c r="H83" s="16"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" customHeight="1" spans="1:8">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="14" t="s">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="G84" s="14"/>
-      <c r="H84" s="16"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
     </row>
     <row r="85" customHeight="1" spans="1:8">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="26" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F85" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="G85" s="14"/>
-      <c r="H85" s="16"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
     </row>
     <row r="86" customHeight="1" spans="1:8">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="14" t="s">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="16"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
     </row>
     <row r="87" customHeight="1" spans="1:8">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="26" t="s">
+      <c r="C87" s="5"/>
+      <c r="D87" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F87" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G87" s="14" t="s">
+      <c r="G87" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H87" s="16"/>
+      <c r="H87" s="19"/>
     </row>
     <row r="88" customHeight="1" spans="1:8">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="14" t="s">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G88" s="14"/>
-      <c r="H88" s="16"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
     </row>
     <row r="89" customHeight="1" spans="1:8">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="26" t="s">
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G89" s="14"/>
-      <c r="H89" s="16"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
     </row>
     <row r="90" customHeight="1" spans="1:8">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="14" t="s">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="G90" s="14"/>
-      <c r="H90" s="16"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
     </row>
     <row r="91" customHeight="1" spans="1:8">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="26" t="s">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G91" s="14"/>
-      <c r="H91" s="16"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
     </row>
     <row r="92" customHeight="1" spans="1:8">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="14" t="s">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="16"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
     </row>
     <row r="93" customHeight="1" spans="1:8">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="16"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
     </row>
     <row r="94" customHeight="1" spans="1:8">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="27"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E94" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="34" t="s">
+      <c r="F94" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G94" s="34"/>
-      <c r="H94" s="16"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="19"/>
     </row>
     <row r="95" customHeight="1" spans="1:8">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="27"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="29"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="34" t="s">
+      <c r="E95" s="33"/>
+      <c r="F95" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="G95" s="34" t="s">
+      <c r="G95" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="H95" s="16"/>
+      <c r="H95" s="19"/>
     </row>
     <row r="96" customHeight="1" spans="1:8">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="27"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="29"/>
-      <c r="E96" s="33" t="s">
+      <c r="E96" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="F96" s="34" t="s">
+      <c r="F96" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G96" s="34"/>
-      <c r="H96" s="16"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="19"/>
     </row>
     <row r="97" customHeight="1" spans="1:8">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="27"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="29"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="34" t="s">
+      <c r="E97" s="33"/>
+      <c r="F97" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G97" s="34"/>
-      <c r="H97" s="16"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="19"/>
     </row>
     <row r="98" customHeight="1" spans="1:8">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="27"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="29"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="36" t="s">
+      <c r="E98" s="33"/>
+      <c r="F98" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="G98" s="34"/>
-      <c r="H98" s="16"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="19"/>
     </row>
     <row r="99" customHeight="1" spans="1:8">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="27"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="29"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="34" t="s">
+      <c r="E99" s="33"/>
+      <c r="F99" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G99" s="34"/>
-      <c r="H99" s="16"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="19"/>
     </row>
     <row r="100" ht="57" customHeight="1" spans="1:10">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="27"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="29"/>
-      <c r="E100" s="33" t="s">
+      <c r="E100" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="F100" s="34" t="s">
+      <c r="F100" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G100" s="34" t="s">
+      <c r="G100" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="H100" s="16"/>
-      <c r="J100"/>
+      <c r="H100" s="19"/>
+      <c r="J100" s="26"/>
     </row>
     <row r="101" ht="57" customHeight="1" spans="1:8">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="27"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="29"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="34" t="s">
+      <c r="E101" s="33"/>
+      <c r="F101" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="G101" s="34"/>
-      <c r="H101" s="30"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="3"/>
     </row>
     <row r="102" ht="57" customHeight="1" spans="1:8">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="27"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="29"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="34" t="s">
+      <c r="E102" s="33"/>
+      <c r="F102" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="G102" s="34"/>
-      <c r="H102" s="31"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="5"/>
     </row>
     <row r="103" ht="57" customHeight="1" spans="1:8">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="27"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="29"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="34" t="s">
+      <c r="E103" s="33"/>
+      <c r="F103" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="G103" s="34"/>
-      <c r="H103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="7"/>
     </row>
     <row r="104" customHeight="1" spans="1:8">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F104" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G104" s="14"/>
-      <c r="H104" s="16"/>
-    </row>
-    <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="14" t="s">
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" customHeight="1" spans="2:8">
+      <c r="B105" s="19"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G105" s="14"/>
-      <c r="H105" s="16"/>
-    </row>
-    <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="14" t="s">
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+    </row>
+    <row r="106" customHeight="1" spans="2:8">
+      <c r="B106" s="19"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="G106" s="14"/>
-      <c r="H106" s="16"/>
-    </row>
-    <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="14" t="s">
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+    </row>
+    <row r="107" customHeight="1" spans="2:8">
+      <c r="B107" s="19"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="G107" s="14"/>
-      <c r="H107" s="16"/>
-    </row>
-    <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="37" t="s">
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+    </row>
+    <row r="108" customHeight="1" spans="2:8">
+      <c r="B108" s="19"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F108" s="34" t="s">
+      <c r="F108" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="G108" s="34" t="s">
+      <c r="G108" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="H108" s="38"/>
-    </row>
-    <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="34" t="s">
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" customHeight="1" spans="2:8">
+      <c r="B109" s="19"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="G109" s="34"/>
-      <c r="H109" s="38"/>
-    </row>
-    <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="34" t="s">
+      <c r="G109" s="32"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" customHeight="1" spans="2:8">
+      <c r="B110" s="19"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="G110" s="34"/>
-      <c r="H110" s="38"/>
-    </row>
-    <row r="111" customHeight="1" spans="1:8">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="34" t="s">
+      <c r="G110" s="32"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" customHeight="1" spans="2:8">
+      <c r="B111" s="19"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="G111" s="34"/>
-      <c r="H111" s="38"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="19" t="s">
+      <c r="G111" s="32"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" customHeight="1" spans="2:8">
+      <c r="B112" s="19"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F112" s="20" t="s">
+      <c r="F112" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="G112" s="20"/>
-      <c r="H112" s="16"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:8">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="20" t="s">
+      <c r="G112" s="24"/>
+      <c r="H112" s="19"/>
+    </row>
+    <row r="113" customHeight="1" spans="2:8">
+      <c r="B113" s="19"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="16"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:8">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="20" t="s">
+      <c r="G113" s="24"/>
+      <c r="H113" s="19"/>
+    </row>
+    <row r="114" customHeight="1" spans="2:8">
+      <c r="B114" s="19"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="G114" s="20"/>
-      <c r="H114" s="16"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:8">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="20" t="s">
+      <c r="G114" s="24"/>
+      <c r="H114" s="19"/>
+    </row>
+    <row r="115" customHeight="1" spans="2:8">
+      <c r="B115" s="19"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="G115" s="20"/>
-      <c r="H115" s="16"/>
-    </row>
-    <row r="116" customHeight="1" spans="1:8">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="19" t="s">
+      <c r="G115" s="24"/>
+      <c r="H115" s="19"/>
+    </row>
+    <row r="116" customHeight="1" spans="2:8">
+      <c r="B116" s="19"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="F116" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G116" s="20" t="s">
+      <c r="G116" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="H116" s="21"/>
-    </row>
-    <row r="117" customHeight="1" spans="1:8">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="20" t="s">
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" customHeight="1" spans="2:8">
+      <c r="B117" s="19"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="G117" s="20" t="s">
+      <c r="G117" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="H117" s="22"/>
-    </row>
-    <row r="118" customHeight="1" spans="1:8">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9" t="s">
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" customHeight="1" spans="2:8">
+      <c r="B118" s="19"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F118" s="14" t="s">
+      <c r="F118" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="G118" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="H118" s="16"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:8">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7" t="s">
+      <c r="H118" s="19"/>
+    </row>
+    <row r="119" customHeight="1" spans="2:8">
+      <c r="B119" s="19"/>
+      <c r="C119" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="16"/>
-    </row>
-    <row r="120" customHeight="1" spans="1:8">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="14" t="s">
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="19"/>
+    </row>
+    <row r="120" customHeight="1" spans="2:8">
+      <c r="B120" s="19"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="G120" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H120" s="16"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:8">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="5" t="s">
+      <c r="H120" s="19"/>
+    </row>
+    <row r="121" customHeight="1" spans="2:8">
+      <c r="B121" s="19"/>
+      <c r="C121" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="16"/>
-    </row>
-    <row r="122" ht="58" customHeight="1" spans="1:8">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="14" t="s">
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="19"/>
+    </row>
+    <row r="122" ht="58" customHeight="1" spans="2:8">
+      <c r="B122" s="19"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F122" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="H122" s="16"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:8">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="14" t="s">
+      <c r="H122" s="19"/>
+    </row>
+    <row r="123" ht="58" customHeight="1" spans="2:8">
+      <c r="B123" s="19"/>
+      <c r="C123" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="16"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:8">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="16"/>
-    </row>
-    <row r="125" customHeight="1" spans="1:8">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="16"/>
-    </row>
-    <row r="126" customHeight="1" spans="1:8">
-      <c r="A126" s="7"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="16"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:8">
-      <c r="A127" s="7"/>
-      <c r="B127" s="9" t="s">
+      <c r="D123" s="30"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+    </row>
+    <row r="124" ht="58" customHeight="1" spans="2:8">
+      <c r="B124" s="19"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+    </row>
+    <row r="125" ht="58" customHeight="1" spans="2:8">
+      <c r="B125" s="19"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+    </row>
+    <row r="126" ht="58" customHeight="1" spans="2:8">
+      <c r="B126" s="19"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+    </row>
+    <row r="127" ht="58" customHeight="1" spans="2:8">
+      <c r="B127" s="19"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+    </row>
+    <row r="128" ht="58" customHeight="1" spans="2:8">
+      <c r="B128" s="19"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" ht="58" customHeight="1" spans="2:8">
+      <c r="B129" s="19"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+    </row>
+    <row r="130" ht="58" customHeight="1" spans="2:8">
+      <c r="B130" s="19"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+    </row>
+    <row r="131" ht="58" customHeight="1" spans="2:8">
+      <c r="B131" s="19"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+    </row>
+    <row r="132" ht="58" customHeight="1" spans="2:8">
+      <c r="B132" s="19"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+    </row>
+    <row r="133" customHeight="1" spans="2:8">
+      <c r="B133" s="19"/>
+      <c r="C133" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="D133" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H133" s="19"/>
+    </row>
+    <row r="134" customHeight="1" spans="2:8">
+      <c r="B134" s="19"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G134" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H134" s="19"/>
+    </row>
+    <row r="135" customHeight="1" spans="2:8">
+      <c r="B135" s="19"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H135" s="19"/>
+    </row>
+    <row r="136" customHeight="1" spans="2:8">
+      <c r="B136" s="19"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+    </row>
+    <row r="137" customHeight="1" spans="2:8">
+      <c r="B137" s="19"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+    </row>
+    <row r="138" customHeight="1" spans="2:8">
+      <c r="B138" s="19"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+    </row>
+    <row r="139" customHeight="1" spans="2:8">
+      <c r="B139" s="19"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+    </row>
+    <row r="140" customHeight="1" spans="2:8">
+      <c r="B140" s="19"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+    </row>
+    <row r="141" ht="51" customHeight="1" spans="2:8">
+      <c r="B141" s="19"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+    </row>
+    <row r="142" customHeight="1" spans="2:8">
+      <c r="B142" s="19"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F142" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+    </row>
+    <row r="143" customHeight="1" spans="2:8">
+      <c r="B143" s="19"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F143" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H143" s="19"/>
+    </row>
+    <row r="144" customHeight="1" spans="2:8">
+      <c r="B144" s="19"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F144" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H144" s="19"/>
+    </row>
+    <row r="145" customHeight="1" spans="2:8">
+      <c r="B145" s="19"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F145" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H145" s="19"/>
+    </row>
+    <row r="146" customHeight="1" spans="2:8">
+      <c r="B146" s="19"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="38"/>
+      <c r="G146" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H146" s="19"/>
+    </row>
+    <row r="147" customHeight="1" spans="2:8">
+      <c r="B147" s="19"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F147" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="H147" s="19"/>
+    </row>
+    <row r="148" customHeight="1" spans="2:8">
+      <c r="B148" s="19"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F148" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H148" s="19"/>
+    </row>
+    <row r="149" customHeight="1" spans="2:8">
+      <c r="B149" s="19"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H149" s="19"/>
+    </row>
+    <row r="150" customHeight="1" spans="2:8">
+      <c r="B150" s="19"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="H150" s="19"/>
+    </row>
+    <row r="151" customHeight="1" spans="2:8">
+      <c r="B151" s="19"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G151" s="19"/>
+      <c r="H151" s="41"/>
+    </row>
+    <row r="152" customHeight="1" spans="2:8">
+      <c r="B152" s="19"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="H152" s="41"/>
+    </row>
+    <row r="153" customHeight="1" spans="2:8">
+      <c r="B153" s="19"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F153" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G153" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="H153" s="42"/>
+    </row>
+    <row r="154" customHeight="1" spans="2:8">
+      <c r="B154" s="19"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="F154" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G154" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="H154" s="41"/>
+    </row>
+    <row r="155" customHeight="1" spans="2:8">
+      <c r="B155" s="19"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H155"/>
+    </row>
+    <row r="156" customHeight="1" spans="2:8">
+      <c r="B156" s="19"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G156" s="19"/>
+      <c r="H156" s="41"/>
+    </row>
+    <row r="157" customHeight="1" spans="2:8">
+      <c r="B157" s="19"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G157" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" customHeight="1" spans="2:8">
+      <c r="B158" s="19"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G158" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" customHeight="1" spans="2:8">
+      <c r="B159" s="19"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" customHeight="1" spans="2:8">
+      <c r="B160" s="19"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F160" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G160" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" customHeight="1" spans="2:8">
+      <c r="B161" s="19"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F161" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" customHeight="1" spans="2:8">
+      <c r="B162" s="19"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" customHeight="1" spans="2:8">
+      <c r="B163" s="19"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" customHeight="1" spans="2:8">
+      <c r="B164" s="19"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F164" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" customHeight="1" spans="2:8">
+      <c r="B165" s="19"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F165" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+    </row>
+    <row r="166" customHeight="1" spans="2:8">
+      <c r="B166" s="19"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+    </row>
+    <row r="167" customHeight="1" spans="2:8">
+      <c r="B167" s="19"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F167" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G167" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H167" s="19"/>
+    </row>
+    <row r="168" customHeight="1" spans="2:8">
+      <c r="B168" s="19"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="F168" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+    </row>
+    <row r="169" customHeight="1" spans="2:8">
+      <c r="B169" s="19"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="G169" s="19"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" customHeight="1" spans="2:8">
+      <c r="B170" s="19"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="F170" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="G170" s="19"/>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" customHeight="1" spans="2:8">
+      <c r="B171" s="19"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="F171" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G171" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" customHeight="1" spans="2:8">
+      <c r="B172" s="19"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F172" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G172" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" customHeight="1" spans="2:8">
+      <c r="B173" s="19"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="F173" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="G173" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" customHeight="1" spans="2:8">
+      <c r="B174" s="19"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="F174" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G174" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="H174" s="7"/>
+    </row>
+    <row r="175" customHeight="1" spans="2:8">
+      <c r="B175" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C175" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D127" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="H127" s="16"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:8">
-      <c r="A128" s="7"/>
-      <c r="B128" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="16"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:14">
-      <c r="A129" s="7"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="16"/>
-      <c r="N129"/>
-    </row>
-    <row r="130" customHeight="1" spans="1:8">
-      <c r="A130" s="7"/>
-      <c r="B130" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E130" s="26" t="s">
+      <c r="D175" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G175" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H175" s="19"/>
+    </row>
+    <row r="176" customHeight="1" spans="2:8">
+      <c r="B176" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+    </row>
+    <row r="177" customHeight="1" spans="2:14">
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="N177" s="26"/>
+    </row>
+    <row r="178" customHeight="1" spans="2:8">
+      <c r="B178" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E178" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G130" s="14"/>
-      <c r="H130" s="30"/>
-    </row>
-    <row r="131" customHeight="1" spans="1:8">
-      <c r="A131" s="7"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="40"/>
-      <c r="F131" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="G131" s="14"/>
-      <c r="H131" s="31"/>
-    </row>
-    <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="7"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G132" s="14"/>
-      <c r="H132" s="31"/>
-    </row>
-    <row r="133" customHeight="1" spans="1:8">
-      <c r="A133" s="7"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="G133" s="14"/>
-      <c r="H133" s="31"/>
-    </row>
-    <row r="134" customHeight="1" spans="1:8">
-      <c r="A134" s="7"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G134" s="14"/>
-      <c r="H134" s="31"/>
-    </row>
-    <row r="135" customHeight="1" spans="1:8">
-      <c r="A135" s="7"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="G135" s="14"/>
-      <c r="H135" s="31"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:8">
-      <c r="A136" s="7"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G136" s="14"/>
-      <c r="H136" s="31"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:8">
-      <c r="A137" s="7"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="40"/>
-      <c r="F137" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G137" s="14"/>
-      <c r="H137" s="32"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:8">
-      <c r="A138" s="7"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E138" s="40"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="32"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:8">
-      <c r="A139" s="7"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E139" s="40"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="32"/>
-    </row>
-    <row r="140" customHeight="1" spans="1:8">
-      <c r="A140" s="7"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="E140" s="40"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="32"/>
-    </row>
-    <row r="141" customHeight="1" spans="1:8">
-      <c r="A141" s="7"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="16"/>
-    </row>
-    <row r="142" customHeight="1" spans="1:8">
-      <c r="A142" s="7"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="16"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:8">
-      <c r="A143" s="7"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="16"/>
-    </row>
-    <row r="144" customHeight="1" spans="1:8">
-      <c r="A144" s="7"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="16"/>
-    </row>
-    <row r="145" customHeight="1" spans="1:8">
-      <c r="A145" s="7"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="16"/>
-    </row>
-    <row r="146" customHeight="1" spans="1:8">
-      <c r="A146" s="7"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="16"/>
-    </row>
-    <row r="147" customHeight="1" spans="1:8">
-      <c r="A147" s="7"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="16"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:8">
-      <c r="A148" s="7"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="16"/>
-    </row>
-    <row r="149" customHeight="1" spans="1:8">
-      <c r="A149" s="7"/>
-      <c r="B149" s="40"/>
-      <c r="C149" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="16"/>
-    </row>
-    <row r="150" customHeight="1" spans="1:8">
-      <c r="A150" s="9"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="16"/>
+      <c r="F178" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="G178" s="19"/>
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" customHeight="1" spans="2:8">
+      <c r="B179" s="5"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="G179" s="19"/>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" customHeight="1" spans="2:8">
+      <c r="B180" s="5"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F180" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G180" s="19"/>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" customHeight="1" spans="2:8">
+      <c r="B181" s="5"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G181" s="19"/>
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" customHeight="1" spans="2:8">
+      <c r="B182" s="5"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G182" s="19"/>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" customHeight="1" spans="2:8">
+      <c r="B183" s="5"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="G183" s="19"/>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" customHeight="1" spans="2:8">
+      <c r="B184" s="5"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G184" s="19"/>
+      <c r="H184" s="4"/>
+    </row>
+    <row r="185" customHeight="1" spans="2:8">
+      <c r="B185" s="5"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="G185" s="19"/>
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" customHeight="1" spans="2:8">
+      <c r="B186" s="5"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F186" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="G186" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" customHeight="1" spans="2:8">
+      <c r="B187" s="5"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G187" s="45"/>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" customHeight="1" spans="2:8">
+      <c r="B188" s="5"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G188" s="45"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" customHeight="1" spans="2:8">
+      <c r="B189" s="5"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="G189" s="45"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" customHeight="1" spans="2:8">
+      <c r="B190" s="5"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="G190" s="45"/>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" customHeight="1" spans="2:8">
+      <c r="B191" s="5"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G191" s="45"/>
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" customHeight="1" spans="2:8">
+      <c r="B192" s="5"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G192" s="45"/>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" customHeight="1" spans="2:8">
+      <c r="B193" s="5"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="G193" s="45"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" customHeight="1" spans="2:8">
+      <c r="B194" s="5"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G194" s="19"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" customHeight="1" spans="2:8">
+      <c r="B195" s="5"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F195" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="G195" s="19"/>
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" customHeight="1" spans="2:8">
+      <c r="B196" s="5"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F196" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G196" s="19"/>
+      <c r="H196" s="4"/>
+    </row>
+    <row r="197" customHeight="1" spans="2:8">
+      <c r="B197" s="5"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F197" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="G197" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" customHeight="1" spans="2:8">
+      <c r="B198" s="5"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F198" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="G198" s="19"/>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" customHeight="1" spans="2:8">
+      <c r="B199" s="5"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F199" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="G199" s="19"/>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" customHeight="1" spans="2:8">
+      <c r="B200" s="5"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G200" s="19"/>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" customHeight="1" spans="2:8">
+      <c r="B201" s="5"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G201" s="19"/>
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" customHeight="1" spans="2:8">
+      <c r="B202" s="5"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G202" s="19"/>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" customHeight="1" spans="2:8">
+      <c r="B203" s="5"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="G203" s="19"/>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" customHeight="1" spans="2:8">
+      <c r="B204" s="5"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="G204" s="19"/>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" customHeight="1" spans="2:8">
+      <c r="B205" s="5"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F205" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G205" s="19"/>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" customHeight="1" spans="2:8">
+      <c r="B206" s="5"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="G206" s="19"/>
+      <c r="H206" s="4"/>
+    </row>
+    <row r="207" customHeight="1" spans="2:8">
+      <c r="B207" s="5"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" customHeight="1" spans="2:8">
+      <c r="B208" s="5"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" customHeight="1" spans="2:8">
+      <c r="B209" s="5"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G209" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" customHeight="1" spans="2:8">
+      <c r="B210" s="5"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="G210" s="19"/>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" customHeight="1" spans="2:8">
+      <c r="B211" s="5"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="G211" s="19"/>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" customHeight="1" spans="2:8">
+      <c r="B212" s="5"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="G212" s="19"/>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" customHeight="1" spans="2:8">
+      <c r="B213" s="5"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="G213" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" customHeight="1" spans="2:8">
+      <c r="B214" s="5"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="G214" s="19"/>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" customHeight="1" spans="2:8">
+      <c r="B215" s="5"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F215" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="G215" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" customHeight="1" spans="2:8">
+      <c r="B216" s="5"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="G216" s="19"/>
+      <c r="H216" s="4"/>
+    </row>
+    <row r="217" customHeight="1" spans="2:8">
+      <c r="B217" s="5"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="G217" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" customHeight="1" spans="2:8">
+      <c r="B218" s="5"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F218" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="G218" s="19"/>
+      <c r="H218" s="4"/>
+    </row>
+    <row r="219" customHeight="1" spans="2:8">
+      <c r="B219" s="5"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F219" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="G219" s="19"/>
+      <c r="H219" s="4"/>
+    </row>
+    <row r="220" customHeight="1" spans="2:8">
+      <c r="B220" s="5"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F220" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="G220" s="19"/>
+      <c r="H220" s="4"/>
+    </row>
+    <row r="221" customHeight="1" spans="2:8">
+      <c r="B221" s="5"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F221" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="G221" s="19"/>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" customHeight="1" spans="2:8">
+      <c r="B222" s="5"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F222" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="G222" s="19"/>
+      <c r="H222" s="4"/>
+    </row>
+    <row r="223" customHeight="1" spans="2:8">
+      <c r="B223" s="5"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F223" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="G223" s="19"/>
+      <c r="H223" s="4"/>
+    </row>
+    <row r="224" customHeight="1" spans="2:8">
+      <c r="B224" s="5"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F224" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="G224" s="19"/>
+      <c r="H224" s="4"/>
+    </row>
+    <row r="225" customHeight="1" spans="2:8">
+      <c r="B225" s="5"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F225" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="G225" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="H225" s="4"/>
+    </row>
+    <row r="226" customHeight="1" spans="2:8">
+      <c r="B226" s="5"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F226" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="G226" s="19"/>
+      <c r="H226" s="4"/>
+    </row>
+    <row r="227" customHeight="1" spans="2:8">
+      <c r="B227" s="5"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F227" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="G227" s="19"/>
+      <c r="H227" s="4"/>
+    </row>
+    <row r="228" customHeight="1" spans="2:8">
+      <c r="B228" s="5"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F228" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="G228" s="19"/>
+      <c r="H228" s="4"/>
+    </row>
+    <row r="229" customHeight="1" spans="2:8">
+      <c r="B229" s="5"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="G229" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="H229" s="4"/>
+    </row>
+    <row r="230" customHeight="1" spans="2:8">
+      <c r="B230" s="5"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="G230" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="H230" s="4"/>
+    </row>
+    <row r="231" customHeight="1" spans="2:8">
+      <c r="B231" s="5"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F231" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="G231" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="H231" s="4"/>
+    </row>
+    <row r="232" customHeight="1" spans="2:8">
+      <c r="B232" s="5"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="G232" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="H232" s="4"/>
+    </row>
+    <row r="233" customHeight="1" spans="2:8">
+      <c r="B233" s="5"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="H233" s="4"/>
+    </row>
+    <row r="234" customHeight="1" spans="2:8">
+      <c r="B234" s="5"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+    </row>
+    <row r="235" customHeight="1" spans="2:8">
+      <c r="B235" s="5"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F235" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="G235" s="19"/>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" customHeight="1" spans="2:8">
+      <c r="B236" s="5"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F236" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H236" s="4"/>
+    </row>
+    <row r="237" customHeight="1" spans="2:8">
+      <c r="B237" s="5"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+    </row>
+    <row r="238" customHeight="1" spans="2:8">
+      <c r="B238" s="5"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" customHeight="1" spans="2:8">
+      <c r="B239" s="5"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+    </row>
+    <row r="240" customHeight="1" spans="2:8">
+      <c r="B240" s="5"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="G240" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="H240" s="4"/>
+    </row>
+    <row r="241" customHeight="1" spans="2:8">
+      <c r="B241" s="5"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H241" s="4"/>
+    </row>
+    <row r="242" customHeight="1" spans="2:8">
+      <c r="B242" s="5"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G242" s="4"/>
+      <c r="H242" s="19"/>
+    </row>
+    <row r="243" customHeight="1" spans="2:8">
+      <c r="B243" s="5"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="G243" s="4"/>
+      <c r="H243" s="19"/>
+    </row>
+    <row r="244" ht="50" customHeight="1" spans="2:8">
+      <c r="B244" s="5"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="G244" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="H244" s="19"/>
+    </row>
+    <row r="245" customHeight="1" spans="2:8">
+      <c r="B245" s="5"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F245" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="G245" s="19"/>
+      <c r="H245" s="19"/>
+    </row>
+    <row r="246" customHeight="1" spans="2:8">
+      <c r="B246" s="5"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="G246" s="19"/>
+      <c r="H246" s="19"/>
+    </row>
+    <row r="247" customHeight="1" spans="2:8">
+      <c r="B247" s="5"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="G247" s="19"/>
+      <c r="H247" s="19"/>
+    </row>
+    <row r="248" customHeight="1" spans="2:8">
+      <c r="B248" s="5"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="G248" s="19"/>
+      <c r="H248" s="19"/>
+    </row>
+    <row r="249" customHeight="1" spans="2:8">
+      <c r="B249" s="5"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="G249" s="19"/>
+      <c r="H249" s="19"/>
+    </row>
+    <row r="250" customHeight="1" spans="2:8">
+      <c r="B250" s="5"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F250" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="G250" s="19"/>
+      <c r="H250" s="19"/>
+    </row>
+    <row r="251" customHeight="1" spans="2:8">
+      <c r="B251" s="5"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="G251" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="H251" s="19"/>
+    </row>
+    <row r="252" customHeight="1" spans="2:8">
+      <c r="B252" s="5"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H252" s="19"/>
+    </row>
+    <row r="253" customHeight="1" spans="2:8">
+      <c r="B253" s="5"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="G253" s="4"/>
+      <c r="H253" s="19"/>
+    </row>
+    <row r="254" customHeight="1" spans="2:8">
+      <c r="B254" s="5"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F254" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="G254" s="4"/>
+      <c r="H254" s="19"/>
+    </row>
+    <row r="255" customHeight="1" spans="2:8">
+      <c r="B255" s="5"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F255" s="19"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="19"/>
+    </row>
+    <row r="256" customHeight="1" spans="2:8">
+      <c r="B256" s="5"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F256" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="G256" s="4"/>
+      <c r="H256" s="19"/>
+    </row>
+    <row r="257" customHeight="1" spans="2:8">
+      <c r="B257" s="5"/>
+      <c r="C257" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
+    </row>
+    <row r="258" customHeight="1" spans="2:8">
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F258" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+    </row>
+    <row r="259" customHeight="1" spans="2:8">
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F259" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H259" s="4"/>
+    </row>
+    <row r="260" customHeight="1" spans="2:8">
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H260" s="4"/>
+    </row>
+    <row r="261" customHeight="1" spans="2:8">
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="G261" s="4"/>
+      <c r="H261" s="4"/>
+    </row>
+    <row r="262" customHeight="1" spans="2:8">
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H262" s="4"/>
+    </row>
+    <row r="263" customHeight="1" spans="2:8">
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F263" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="G263" s="4"/>
+      <c r="H263" s="19"/>
+    </row>
+    <row r="264" customHeight="1" spans="2:8">
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F264" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="G264" s="4"/>
+      <c r="H264" s="19"/>
+    </row>
+    <row r="265" customHeight="1" spans="2:8">
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F265" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G265" s="4"/>
+      <c r="H265" s="19"/>
+    </row>
+    <row r="266" customHeight="1" spans="2:8">
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F266" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="G266" s="4"/>
+      <c r="H266" s="19"/>
+    </row>
+    <row r="267" customHeight="1" spans="2:8">
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F267" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="G267" s="4"/>
+      <c r="H267" s="19"/>
+    </row>
+    <row r="268" customHeight="1" spans="2:8">
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F268" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="G268" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="H268" s="19"/>
+    </row>
+    <row r="269" customHeight="1" spans="2:8">
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="G269" s="19"/>
+      <c r="H269" s="19"/>
+    </row>
+    <row r="270" customHeight="1" spans="2:8">
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E270" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F270" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G270" s="19"/>
+      <c r="H270" s="19"/>
+    </row>
+    <row r="271" customHeight="1" spans="2:8">
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="F271" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="G271" s="19"/>
+      <c r="H271" s="19"/>
+    </row>
+    <row r="272" customHeight="1" spans="2:8">
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G272" s="4"/>
+      <c r="H272" s="4"/>
+    </row>
+    <row r="273" customHeight="1" spans="2:8">
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H273" s="3"/>
+    </row>
+    <row r="274" ht="58" customHeight="1" spans="2:8">
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H274" s="7"/>
+    </row>
+    <row r="275" customHeight="1" spans="2:8">
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="G275" s="4"/>
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" customHeight="1" spans="2:8">
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H276" s="7"/>
+    </row>
+    <row r="277" customHeight="1" spans="2:8">
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G277" s="4"/>
+      <c r="H277" s="4"/>
+    </row>
+    <row r="278" customHeight="1" spans="2:8">
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G278" s="4"/>
+      <c r="H278"/>
+    </row>
+    <row r="279" customHeight="1" spans="2:8">
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G279"/>
+      <c r="H279" s="4"/>
+    </row>
+    <row r="280" customHeight="1" spans="2:8">
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="G280" s="4"/>
+      <c r="H280" s="4"/>
+    </row>
+    <row r="281" customHeight="1" spans="2:8">
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G281" s="4"/>
+      <c r="H281" s="4"/>
+    </row>
+    <row r="282" customHeight="1" spans="2:8">
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G282" s="4"/>
+      <c r="H282" s="4"/>
+    </row>
+    <row r="283" customHeight="1" spans="2:8">
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G283" s="4"/>
+      <c r="H283" s="4"/>
+    </row>
+    <row r="284" customHeight="1" spans="2:8">
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G284" s="4"/>
+      <c r="H284" s="4"/>
+    </row>
+    <row r="285" customHeight="1" spans="2:8">
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G285" s="4"/>
+      <c r="H285" s="4"/>
+    </row>
+    <row r="286" customHeight="1" spans="2:8">
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H286" s="4"/>
+    </row>
+    <row r="287" customHeight="1" spans="2:8">
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G287" s="4"/>
+      <c r="H287" s="4"/>
+    </row>
+    <row r="288" customHeight="1" spans="2:8">
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G288" s="4"/>
+      <c r="H288" s="4"/>
+    </row>
+    <row r="289" customHeight="1" spans="2:8">
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G289" s="4"/>
+      <c r="H289" s="4"/>
+    </row>
+    <row r="290" customHeight="1" spans="2:8">
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G290" s="4"/>
+      <c r="H290" s="4"/>
+    </row>
+    <row r="291" customHeight="1" spans="2:8">
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G291" s="4"/>
+      <c r="H291" s="4"/>
+    </row>
+    <row r="292" customHeight="1" spans="2:8">
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G292" s="4"/>
+      <c r="H292" s="4"/>
+    </row>
+    <row r="293" customHeight="1" spans="2:8">
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G293" s="4"/>
+      <c r="H293" s="4"/>
+    </row>
+    <row r="294" customHeight="1" spans="2:8">
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H294" s="4"/>
+    </row>
+    <row r="295" customHeight="1" spans="2:8">
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H295" s="4"/>
+    </row>
+    <row r="296" customHeight="1" spans="2:8">
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G296" s="4"/>
+      <c r="H296" s="4"/>
+    </row>
+    <row r="297" customHeight="1" spans="2:8">
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+    </row>
+    <row r="298" customHeight="1" spans="2:8">
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="G298" s="4"/>
+      <c r="H298" s="4"/>
+    </row>
+    <row r="299" customHeight="1" spans="2:8">
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G299" s="4"/>
+      <c r="H299" s="4"/>
+    </row>
+    <row r="300" customHeight="1" spans="2:8">
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="G300" s="4"/>
+      <c r="H300" s="4"/>
+    </row>
+    <row r="301" customHeight="1" spans="2:8">
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="G301" s="4"/>
+      <c r="H301" s="4"/>
+    </row>
+    <row r="302" customHeight="1" spans="2:8">
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G302" s="4"/>
+      <c r="H302" s="4"/>
+    </row>
+    <row r="303" customHeight="1" spans="2:8">
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="G303" s="4"/>
+      <c r="H303" s="4"/>
+    </row>
+    <row r="304" customHeight="1" spans="2:8">
+      <c r="B304" s="5"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="G304" s="4"/>
+      <c r="H304" s="4"/>
+    </row>
+    <row r="305" customHeight="1" spans="2:8">
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="G305" s="4"/>
+      <c r="H305" s="4"/>
+    </row>
+    <row r="306" customHeight="1" spans="2:8">
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="7"/>
+      <c r="F306" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="G306" s="4"/>
+      <c r="H306" s="4"/>
+    </row>
+    <row r="307" customHeight="1" spans="2:8">
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G307" s="4"/>
+      <c r="H307" s="4"/>
+    </row>
+    <row r="308" customHeight="1" spans="2:8">
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G308" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="H308" s="4"/>
+    </row>
+    <row r="309" customHeight="1" spans="2:8">
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
+    </row>
+    <row r="310" customHeight="1" spans="2:8">
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F310" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G310" s="4"/>
+      <c r="H310" s="3"/>
+    </row>
+    <row r="311" customHeight="1" spans="2:8">
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="G311" s="4"/>
+      <c r="H311" s="5"/>
+    </row>
+    <row r="312" customHeight="1" spans="2:10">
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G312" s="4"/>
+      <c r="H312" s="5"/>
+      <c r="J312"/>
+    </row>
+    <row r="313" customHeight="1" spans="2:8">
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G313" s="4"/>
+      <c r="H313" s="5"/>
+    </row>
+    <row r="314" customHeight="1" spans="2:8">
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="G314" s="4"/>
+      <c r="H314" s="7"/>
+    </row>
+    <row r="315" customHeight="1" spans="2:8">
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="G315" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="H315" s="4"/>
+    </row>
+    <row r="316" customHeight="1" spans="2:8">
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="H316" s="4"/>
+    </row>
+    <row r="317" customHeight="1" spans="2:8">
+      <c r="B317" s="5"/>
+      <c r="C317" s="7"/>
+      <c r="D317" s="7"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G317" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H317" s="4"/>
+    </row>
+    <row r="318" customHeight="1" spans="2:8">
+      <c r="B318" s="5"/>
+      <c r="C318" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
+      <c r="H318" s="4"/>
+    </row>
+    <row r="319" customHeight="1" spans="2:8">
+      <c r="B319" s="5"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
+      <c r="H319" s="4"/>
+    </row>
+    <row r="320" customHeight="1" spans="2:8">
+      <c r="B320" s="5"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
+      <c r="H320" s="4"/>
+    </row>
+    <row r="321" customHeight="1" spans="2:8">
+      <c r="B321" s="5"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
+      <c r="H321" s="4"/>
+    </row>
+    <row r="322" customHeight="1" spans="2:8">
+      <c r="B322" s="5"/>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4"/>
+      <c r="G322" s="4"/>
+      <c r="H322" s="4"/>
+    </row>
+    <row r="323" customHeight="1" spans="2:8">
+      <c r="B323" s="5"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
+      <c r="H323" s="4"/>
+    </row>
+    <row r="324" customHeight="1" spans="2:8">
+      <c r="B324" s="5"/>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
+      <c r="G324" s="4"/>
+      <c r="H324" s="4"/>
+    </row>
+    <row r="325" customHeight="1" spans="2:8">
+      <c r="B325" s="5"/>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
+      <c r="H325" s="4"/>
+    </row>
+    <row r="326" customHeight="1" spans="2:8">
+      <c r="B326" s="5"/>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
+      <c r="G326" s="4"/>
+      <c r="H326" s="4"/>
+    </row>
+    <row r="327" customHeight="1" spans="2:8">
+      <c r="B327" s="5"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4"/>
+      <c r="F327" s="4"/>
+      <c r="G327" s="4"/>
+      <c r="H327" s="4"/>
+    </row>
+    <row r="328" customHeight="1" spans="2:8">
+      <c r="B328" s="5"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
+      <c r="H328" s="4"/>
+    </row>
+    <row r="329" customHeight="1" spans="2:8">
+      <c r="B329" s="5"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
+      <c r="H329" s="4"/>
+    </row>
+    <row r="330" customHeight="1" spans="2:8">
+      <c r="B330" s="5"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
+      <c r="G330" s="4"/>
+      <c r="H330" s="4"/>
+    </row>
+    <row r="331" customHeight="1" spans="2:8">
+      <c r="B331" s="5"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
+      <c r="G331" s="4"/>
+      <c r="H331" s="4"/>
+    </row>
+    <row r="332" customHeight="1" spans="2:8">
+      <c r="B332" s="5"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
+      <c r="G332" s="4"/>
+      <c r="H332" s="4"/>
+    </row>
+    <row r="333" customHeight="1" spans="2:8">
+      <c r="B333" s="5"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
+      <c r="G333" s="4"/>
+      <c r="H333" s="4"/>
+    </row>
+    <row r="334" customHeight="1" spans="2:8">
+      <c r="B334" s="5"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
+      <c r="G334" s="4"/>
+      <c r="H334" s="4"/>
+    </row>
+    <row r="335" customHeight="1" spans="2:8">
+      <c r="B335" s="5"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
+      <c r="G335" s="4"/>
+      <c r="H335" s="4"/>
+    </row>
+    <row r="336" customHeight="1" spans="2:8">
+      <c r="B336" s="5"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
+      <c r="H336" s="4"/>
+    </row>
+    <row r="337" customHeight="1" spans="2:8">
+      <c r="B337" s="5"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
+      <c r="G337" s="4"/>
+      <c r="H337" s="4"/>
+    </row>
+    <row r="338" customHeight="1" spans="2:8">
+      <c r="B338" s="5"/>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
+      <c r="H338" s="4"/>
+    </row>
+    <row r="339" customHeight="1" spans="2:8">
+      <c r="B339" s="5"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4"/>
+      <c r="F339" s="4"/>
+      <c r="G339" s="4"/>
+      <c r="H339" s="4"/>
+    </row>
+    <row r="340" customHeight="1" spans="2:8">
+      <c r="B340" s="5"/>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
+      <c r="G340" s="4"/>
+      <c r="H340" s="4"/>
+    </row>
+    <row r="341" customHeight="1" spans="2:8">
+      <c r="B341" s="5"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
+      <c r="G341" s="4"/>
+      <c r="H341" s="4"/>
+    </row>
+    <row r="342" customHeight="1" spans="2:8">
+      <c r="B342" s="5"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
+      <c r="G342" s="4"/>
+      <c r="H342" s="4"/>
+    </row>
+    <row r="343" customHeight="1" spans="2:8">
+      <c r="B343" s="5"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
+      <c r="G343" s="4"/>
+      <c r="H343" s="4"/>
+    </row>
+    <row r="344" customHeight="1" spans="2:8">
+      <c r="B344" s="5"/>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4"/>
+      <c r="F344" s="4"/>
+      <c r="G344" s="4"/>
+      <c r="H344" s="4"/>
+    </row>
+    <row r="345" customHeight="1" spans="2:8">
+      <c r="B345" s="5"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+    </row>
+    <row r="346" customHeight="1" spans="2:8">
+      <c r="B346" s="5"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
+      <c r="G346" s="4"/>
+      <c r="H346" s="4"/>
+    </row>
+    <row r="347" customHeight="1" spans="2:8">
+      <c r="B347" s="5"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
+      <c r="H347" s="4"/>
+    </row>
+    <row r="348" customHeight="1" spans="2:8">
+      <c r="B348" s="5"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
+      <c r="H348" s="4"/>
+    </row>
+    <row r="349" customHeight="1" spans="2:8">
+      <c r="B349" s="5"/>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="4"/>
+      <c r="G349" s="4"/>
+      <c r="H349" s="4"/>
+    </row>
+    <row r="350" customHeight="1" spans="2:8">
+      <c r="B350" s="5"/>
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4"/>
+      <c r="F350" s="4"/>
+      <c r="G350" s="4"/>
+      <c r="H350" s="4"/>
+    </row>
+    <row r="351" customHeight="1" spans="2:8">
+      <c r="B351" s="5"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4"/>
+      <c r="F351" s="4"/>
+      <c r="G351" s="4"/>
+      <c r="H351" s="4"/>
+    </row>
+    <row r="352" customHeight="1" spans="2:8">
+      <c r="B352" s="5"/>
+      <c r="C352" s="4"/>
+      <c r="D352" s="4"/>
+      <c r="E352" s="4"/>
+      <c r="F352" s="4"/>
+      <c r="G352" s="4"/>
+      <c r="H352" s="4"/>
+    </row>
+    <row r="353" customHeight="1" spans="2:8">
+      <c r="B353" s="5"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4"/>
+      <c r="F353" s="4"/>
+      <c r="G353" s="4"/>
+      <c r="H353" s="4"/>
+    </row>
+    <row r="354" customHeight="1" spans="2:8">
+      <c r="B354" s="5"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4"/>
+      <c r="F354" s="4"/>
+      <c r="G354" s="4"/>
+      <c r="H354" s="4"/>
+    </row>
+    <row r="355" customHeight="1" spans="2:8">
+      <c r="B355" s="5"/>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4"/>
+      <c r="F355" s="4"/>
+      <c r="G355" s="4"/>
+      <c r="H355" s="4"/>
+    </row>
+    <row r="356" customHeight="1" spans="2:8">
+      <c r="B356" s="5"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="E356" s="4"/>
+      <c r="F356" s="4"/>
+      <c r="G356" s="4"/>
+      <c r="H356" s="4"/>
+    </row>
+    <row r="357" customHeight="1" spans="2:8">
+      <c r="B357" s="5"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="4"/>
+      <c r="F357" s="4"/>
+      <c r="G357" s="4"/>
+      <c r="H357" s="4"/>
+    </row>
+    <row r="358" customHeight="1" spans="2:8">
+      <c r="B358" s="5"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="4"/>
+      <c r="F358" s="4"/>
+      <c r="G358" s="4"/>
+      <c r="H358" s="4"/>
+    </row>
+    <row r="359" customHeight="1" spans="2:8">
+      <c r="B359" s="5"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="4"/>
+      <c r="F359" s="4"/>
+      <c r="G359" s="4"/>
+      <c r="H359" s="4"/>
+    </row>
+    <row r="360" customHeight="1" spans="2:8">
+      <c r="B360" s="5"/>
+      <c r="C360" s="4"/>
+      <c r="D360" s="4"/>
+      <c r="E360" s="4"/>
+      <c r="F360" s="4"/>
+      <c r="G360" s="4"/>
+      <c r="H360" s="4"/>
+    </row>
+    <row r="361" customHeight="1" spans="2:8">
+      <c r="B361" s="5"/>
+      <c r="C361" s="4"/>
+      <c r="D361" s="4"/>
+      <c r="E361" s="4"/>
+      <c r="F361" s="4"/>
+      <c r="G361" s="4"/>
+      <c r="H361" s="4"/>
+    </row>
+    <row r="362" customHeight="1" spans="2:8">
+      <c r="B362" s="5"/>
+      <c r="C362" s="4"/>
+      <c r="D362" s="4"/>
+      <c r="E362" s="4"/>
+      <c r="F362" s="4"/>
+      <c r="G362" s="4"/>
+      <c r="H362" s="4"/>
+    </row>
+    <row r="363" customHeight="1" spans="2:8">
+      <c r="B363" s="5"/>
+      <c r="C363" s="4"/>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4"/>
+      <c r="F363" s="4"/>
+      <c r="G363" s="4"/>
+      <c r="H363" s="4"/>
+    </row>
+    <row r="364" customHeight="1" spans="2:8">
+      <c r="B364" s="5"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="4"/>
+      <c r="G364" s="4"/>
+      <c r="H364" s="4"/>
+    </row>
+    <row r="365" customHeight="1" spans="2:8">
+      <c r="B365" s="5"/>
+      <c r="C365" s="4"/>
+      <c r="D365" s="4"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="4"/>
+      <c r="G365" s="4"/>
+      <c r="H365" s="4"/>
+    </row>
+    <row r="366" customHeight="1" spans="2:8">
+      <c r="B366" s="5"/>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="4"/>
+      <c r="G366" s="4"/>
+      <c r="H366" s="4"/>
+    </row>
+    <row r="367" customHeight="1" spans="2:8">
+      <c r="B367" s="5"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="4"/>
+      <c r="G367" s="4"/>
+      <c r="H367" s="4"/>
+    </row>
+    <row r="368" customHeight="1" spans="2:8">
+      <c r="B368" s="5"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="4"/>
+      <c r="G368" s="4"/>
+      <c r="H368" s="4"/>
+    </row>
+    <row r="369" customHeight="1" spans="2:8">
+      <c r="B369" s="5"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4"/>
+      <c r="F369" s="4"/>
+      <c r="G369" s="4"/>
+      <c r="H369" s="4"/>
+    </row>
+    <row r="370" customHeight="1" spans="2:8">
+      <c r="B370" s="5"/>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4"/>
+      <c r="F370" s="4"/>
+      <c r="G370" s="4"/>
+      <c r="H370" s="4"/>
+    </row>
+    <row r="371" customHeight="1" spans="2:8">
+      <c r="B371" s="5"/>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="4"/>
+      <c r="F371" s="4"/>
+      <c r="G371" s="4"/>
+      <c r="H371" s="4"/>
+    </row>
+    <row r="372" customHeight="1" spans="2:8">
+      <c r="B372" s="5"/>
+      <c r="C372" s="4"/>
+      <c r="D372" s="4"/>
+      <c r="E372" s="4"/>
+      <c r="F372" s="4"/>
+      <c r="G372" s="4"/>
+      <c r="H372" s="4"/>
+    </row>
+    <row r="373" customHeight="1" spans="2:8">
+      <c r="B373" s="7"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+      <c r="E373" s="4"/>
+      <c r="F373" s="4"/>
+      <c r="G373" s="4"/>
+      <c r="H373" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="139">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A3:A103"/>
-    <mergeCell ref="A104:A150"/>
+    <mergeCell ref="A104:A373"/>
     <mergeCell ref="B3:B103"/>
-    <mergeCell ref="B104:B126"/>
-    <mergeCell ref="B130:B149"/>
+    <mergeCell ref="B104:B174"/>
+    <mergeCell ref="B178:B373"/>
     <mergeCell ref="C3:C39"/>
     <mergeCell ref="C40:C67"/>
     <mergeCell ref="C68:C74"/>
@@ -4740,9 +9842,10 @@
     <mergeCell ref="C104:C118"/>
     <mergeCell ref="C119:C120"/>
     <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C130:C141"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C123:C132"/>
+    <mergeCell ref="C133:C174"/>
+    <mergeCell ref="C178:C256"/>
+    <mergeCell ref="C257:C317"/>
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="D10:D27"/>
     <mergeCell ref="D28:D39"/>
@@ -4755,7 +9858,25 @@
     <mergeCell ref="D94:D103"/>
     <mergeCell ref="D104:D117"/>
     <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D136:D140"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D143:D150"/>
+    <mergeCell ref="D151:D156"/>
+    <mergeCell ref="D157:D160"/>
+    <mergeCell ref="D161:D164"/>
+    <mergeCell ref="D165:D168"/>
+    <mergeCell ref="D169:D174"/>
+    <mergeCell ref="D178:D193"/>
+    <mergeCell ref="D195:D217"/>
+    <mergeCell ref="D218:D227"/>
+    <mergeCell ref="D228:D253"/>
+    <mergeCell ref="D254:D256"/>
+    <mergeCell ref="D257:D262"/>
+    <mergeCell ref="D263:D269"/>
+    <mergeCell ref="D270:D276"/>
+    <mergeCell ref="D277:D285"/>
+    <mergeCell ref="D286:D293"/>
+    <mergeCell ref="D294:D317"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="E17:E24"/>
@@ -4783,9 +9904,33 @@
     <mergeCell ref="E108:E111"/>
     <mergeCell ref="E112:E115"/>
     <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="E132:E137"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="E180:E185"/>
+    <mergeCell ref="E186:E193"/>
+    <mergeCell ref="E199:E204"/>
+    <mergeCell ref="E205:E214"/>
+    <mergeCell ref="E215:E217"/>
+    <mergeCell ref="E228:E230"/>
+    <mergeCell ref="E231:E234"/>
+    <mergeCell ref="E236:E244"/>
+    <mergeCell ref="E245:E249"/>
+    <mergeCell ref="E250:E253"/>
+    <mergeCell ref="E259:E262"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="E278:E279"/>
+    <mergeCell ref="E280:E285"/>
+    <mergeCell ref="E288:E290"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="E296:E299"/>
+    <mergeCell ref="E303:E306"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="E310:E314"/>
+    <mergeCell ref="E315:E317"/>
     <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F145:F146"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G17:G24"/>
     <mergeCell ref="G28:G31"/>
@@ -4793,6 +9938,12 @@
     <mergeCell ref="G60:G62"/>
     <mergeCell ref="G63:G65"/>
     <mergeCell ref="G120:G121"/>
+    <mergeCell ref="G161:G164"/>
+    <mergeCell ref="G186:G193"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="G236:G239"/>
+    <mergeCell ref="G241:G243"/>
+    <mergeCell ref="G252:G253"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="H36:H39"/>
     <mergeCell ref="H40:H45"/>
@@ -4803,11 +9954,257 @@
     <mergeCell ref="H101:H103"/>
     <mergeCell ref="H108:H111"/>
     <mergeCell ref="H116:H117"/>
-    <mergeCell ref="H130:H137"/>
+    <mergeCell ref="H157:H160"/>
+    <mergeCell ref="H161:H164"/>
+    <mergeCell ref="H169:H174"/>
+    <mergeCell ref="H178:H185"/>
+    <mergeCell ref="H186:H194"/>
+    <mergeCell ref="H195:H198"/>
+    <mergeCell ref="H199:H204"/>
+    <mergeCell ref="H212:H217"/>
+    <mergeCell ref="H228:H241"/>
+    <mergeCell ref="H257:H262"/>
+    <mergeCell ref="H273:H274"/>
+    <mergeCell ref="H275:H276"/>
+    <mergeCell ref="H310:H314"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>